--- a/00 - Documents/2_PASCHE_Planning_2023.xlsx
+++ b/00 - Documents/2_PASCHE_Planning_2023.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57EF8BD-CA3D-4C1B-A738-2D5E4B7FA9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF92B031-943A-42E1-BE5F-4B2A62B34EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CM$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CM$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Tâches</t>
   </si>
@@ -199,6 +199,12 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>Maquettes</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -795,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -928,10 +934,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -963,48 +965,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1013,42 +1007,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1063,34 +1021,56 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0E09CA26-D57B-4FEF-A8F4-4CB706A0B1E1}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1142,14 +1122,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
+      <xdr:colOff>19843</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1165,8 +1145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3887822" y="662609"/>
-          <a:ext cx="1421330" cy="6393915"/>
+          <a:off x="3887821" y="662609"/>
+          <a:ext cx="1263962" cy="6584415"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1575,13 +1555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN38"/>
+  <dimension ref="A1:CN39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D16" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1596,207 +1576,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="51">
         <v>145341</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70" t="s">
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
+      <c r="CG2" s="56"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="56"/>
     </row>
     <row r="3" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="57"/>
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="57"/>
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="57"/>
     </row>
     <row r="4" spans="1:92" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1805,144 +1785,144 @@
       <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="58">
         <v>45068</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="59" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61">
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="58">
         <v>45069</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="59" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="61">
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="58">
         <v>45070</v>
       </c>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="59" t="s">
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="61">
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="58">
         <v>45071</v>
       </c>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="59" t="s">
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="61">
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="58">
         <v>45072</v>
       </c>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="59" t="s">
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="61">
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="58">
         <v>45075</v>
       </c>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="59" t="s">
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="61">
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="58">
         <v>45076</v>
       </c>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="59" t="s">
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="61">
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="58">
         <v>45077</v>
       </c>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="59" t="s">
+      <c r="BM4" s="58"/>
+      <c r="BN4" s="58"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="61">
+      <c r="BQ4" s="73"/>
+      <c r="BR4" s="73"/>
+      <c r="BS4" s="73"/>
+      <c r="BT4" s="58">
         <v>45078</v>
       </c>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="62"/>
-      <c r="BX4" s="59" t="s">
+      <c r="BU4" s="58"/>
+      <c r="BV4" s="58"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="61">
+      <c r="BY4" s="73"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CB4" s="58">
         <v>45079</v>
       </c>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="62"/>
-      <c r="CF4" s="59" t="s">
+      <c r="CC4" s="58"/>
+      <c r="CD4" s="58"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="61">
+      <c r="CG4" s="73"/>
+      <c r="CH4" s="73"/>
+      <c r="CI4" s="73"/>
+      <c r="CJ4" s="58">
         <v>45082</v>
       </c>
-      <c r="CK4" s="61"/>
-      <c r="CL4" s="61"/>
-      <c r="CM4" s="62"/>
-      <c r="CN4" s="63" t="s">
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="58"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2213,13 +2193,13 @@
       <c r="CM5" s="5">
         <v>8</v>
       </c>
-      <c r="CN5" s="63"/>
+      <c r="CN5" s="49"/>
     </row>
     <row r="6" spans="1:92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2261,16 +2241,16 @@
       <c r="AO6" s="36"/>
       <c r="AP6" s="36"/>
       <c r="AQ6" s="37"/>
-      <c r="AR6" s="50" t="s">
+      <c r="AR6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="52"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="76"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
       <c r="BB6" s="36"/>
@@ -2311,7 +2291,7 @@
       <c r="CK6" s="36"/>
       <c r="CL6" s="36"/>
       <c r="CM6" s="37"/>
-      <c r="CN6" s="63"/>
+      <c r="CN6" s="49"/>
     </row>
     <row r="7" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
@@ -2363,14 +2343,14 @@
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
       <c r="AQ7" s="39"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="55"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="79"/>
       <c r="AZ7" s="40"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
@@ -2411,7 +2391,7 @@
       <c r="CK7" s="38"/>
       <c r="CL7" s="38"/>
       <c r="CM7" s="39"/>
-      <c r="CN7" s="63"/>
+      <c r="CN7" s="49"/>
     </row>
     <row r="8" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -2427,8 +2407,8 @@
       <c r="G8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="40"/>
@@ -2463,14 +2443,14 @@
       <c r="AO8" s="38"/>
       <c r="AP8" s="38"/>
       <c r="AQ8" s="39"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="55"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="79"/>
       <c r="AZ8" s="40"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
@@ -2511,14 +2491,14 @@
       <c r="CK8" s="38"/>
       <c r="CL8" s="38"/>
       <c r="CM8" s="39"/>
-      <c r="CN8" s="63"/>
+      <c r="CN8" s="49"/>
     </row>
     <row r="9" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="40"/>
@@ -2535,12 +2515,16 @@
         <v>41</v>
       </c>
       <c r="K9" s="28"/>
-      <c r="L9" s="26"/>
+      <c r="L9" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="R9" s="38"/>
       <c r="S9" s="39"/>
       <c r="T9" s="40"/>
@@ -2567,14 +2551,14 @@
       <c r="AO9" s="38"/>
       <c r="AP9" s="38"/>
       <c r="AQ9" s="39"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="55"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="79"/>
       <c r="AZ9" s="40"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
@@ -2615,14 +2599,14 @@
       <c r="CK9" s="38"/>
       <c r="CL9" s="38"/>
       <c r="CM9" s="39"/>
-      <c r="CN9" s="63"/>
+      <c r="CN9" s="49"/>
     </row>
     <row r="10" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="40"/>
@@ -2633,12 +2617,18 @@
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="L10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="38"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="Q10" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="R10" s="38"/>
       <c r="S10" s="39"/>
       <c r="T10" s="40"/>
@@ -2665,14 +2655,14 @@
       <c r="AO10" s="38"/>
       <c r="AP10" s="38"/>
       <c r="AQ10" s="39"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="55"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="79"/>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
@@ -2713,13 +2703,15 @@
       <c r="CK10" s="38"/>
       <c r="CL10" s="38"/>
       <c r="CM10" s="39"/>
-      <c r="CN10" s="63"/>
+      <c r="CN10" s="49"/>
     </row>
-    <row r="11" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="75"/>
+    <row r="11" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="40"/>
       <c r="E11" s="38"/>
@@ -2729,12 +2721,16 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
-      <c r="Q11" s="41"/>
+      <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
       <c r="T11" s="40"/>
@@ -2761,14 +2757,14 @@
       <c r="AO11" s="38"/>
       <c r="AP11" s="38"/>
       <c r="AQ11" s="39"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="55"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="79"/>
       <c r="AZ11" s="40"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
@@ -2809,15 +2805,13 @@
       <c r="CK11" s="38"/>
       <c r="CL11" s="38"/>
       <c r="CM11" s="39"/>
-      <c r="CN11" s="63"/>
+      <c r="CN11" s="49"/>
     </row>
-    <row r="12" spans="1:92" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="12" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="63"/>
       <c r="C12" s="8"/>
       <c r="D12" s="40"/>
       <c r="E12" s="38"/>
@@ -2832,9 +2826,9 @@
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
-      <c r="Q12" s="29"/>
+      <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="S12" s="39"/>
       <c r="T12" s="40"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
@@ -2859,14 +2853,14 @@
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
       <c r="AQ12" s="39"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="55"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="79"/>
       <c r="AZ12" s="40"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
@@ -2907,14 +2901,14 @@
       <c r="CK12" s="38"/>
       <c r="CL12" s="38"/>
       <c r="CM12" s="39"/>
-      <c r="CN12" s="63"/>
+      <c r="CN12" s="49"/>
     </row>
     <row r="13" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="40"/>
@@ -2930,10 +2924,12 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="42"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="40"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
       <c r="W13" s="38"/>
@@ -2957,14 +2953,14 @@
       <c r="AO13" s="38"/>
       <c r="AP13" s="38"/>
       <c r="AQ13" s="39"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="55"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="79"/>
       <c r="AZ13" s="40"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
@@ -3005,14 +3001,14 @@
       <c r="CK13" s="38"/>
       <c r="CL13" s="38"/>
       <c r="CM13" s="39"/>
-      <c r="CN13" s="63"/>
+      <c r="CN13" s="49"/>
     </row>
     <row r="14" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="40"/>
@@ -3029,10 +3025,12 @@
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
+      <c r="R14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="38"/>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
@@ -3055,14 +3053,14 @@
       <c r="AO14" s="38"/>
       <c r="AP14" s="38"/>
       <c r="AQ14" s="39"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="55"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="79"/>
       <c r="AZ14" s="40"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
@@ -3103,13 +3101,15 @@
       <c r="CK14" s="38"/>
       <c r="CL14" s="38"/>
       <c r="CM14" s="39"/>
-      <c r="CN14" s="63"/>
+      <c r="CN14" s="49"/>
     </row>
-    <row r="15" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="73"/>
+    <row r="15" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="40"/>
       <c r="E15" s="38"/>
@@ -3127,8 +3127,8 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="38"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
@@ -3151,14 +3151,14 @@
       <c r="AO15" s="38"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="39"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="55"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="79"/>
       <c r="AZ15" s="40"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
@@ -3199,15 +3199,13 @@
       <c r="CK15" s="38"/>
       <c r="CL15" s="38"/>
       <c r="CM15" s="39"/>
-      <c r="CN15" s="63"/>
+      <c r="CN15" s="49"/>
     </row>
-    <row r="16" spans="1:92" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="16" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="61"/>
       <c r="C16" s="8"/>
       <c r="D16" s="40"/>
       <c r="E16" s="38"/>
@@ -3227,8 +3225,8 @@
       <c r="S16" s="39"/>
       <c r="T16" s="40"/>
       <c r="U16" s="38"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
@@ -3249,14 +3247,14 @@
       <c r="AO16" s="38"/>
       <c r="AP16" s="38"/>
       <c r="AQ16" s="39"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="55"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="79"/>
       <c r="AZ16" s="40"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
@@ -3297,11 +3295,11 @@
       <c r="CK16" s="38"/>
       <c r="CL16" s="38"/>
       <c r="CM16" s="39"/>
-      <c r="CN16" s="63"/>
+      <c r="CN16" s="49"/>
     </row>
     <row r="17" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>46</v>
@@ -3325,40 +3323,40 @@
       <c r="S17" s="39"/>
       <c r="T17" s="40"/>
       <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="53"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
       <c r="BD17" s="38"/>
       <c r="BE17" s="38"/>
       <c r="BF17" s="38"/>
@@ -3395,11 +3393,11 @@
       <c r="CK17" s="38"/>
       <c r="CL17" s="38"/>
       <c r="CM17" s="39"/>
-      <c r="CN17" s="63"/>
+      <c r="CN17" s="49"/>
     </row>
     <row r="18" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -3425,58 +3423,58 @@
       <c r="U18" s="38"/>
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="53"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="55"/>
-      <c r="AZ18" s="40"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="40"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="40"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="38"/>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="38"/>
+      <c r="BW18" s="39"/>
       <c r="BX18" s="36"/>
       <c r="BY18" s="36"/>
       <c r="BZ18" s="36"/>
@@ -3493,209 +3491,209 @@
       <c r="CK18" s="38"/>
       <c r="CL18" s="38"/>
       <c r="CM18" s="39"/>
-      <c r="CN18" s="63"/>
+      <c r="CN18" s="49"/>
     </row>
-    <row r="19" spans="1:92" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>27</v>
+    <row r="19" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="55"/>
-      <c r="AZ19" s="43"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="43"/>
-      <c r="BI19" s="44"/>
-      <c r="BJ19" s="44"/>
-      <c r="BK19" s="44"/>
-      <c r="BL19" s="44"/>
-      <c r="BM19" s="44"/>
-      <c r="BN19" s="44"/>
-      <c r="BO19" s="45"/>
-      <c r="BP19" s="43"/>
-      <c r="BQ19" s="44"/>
-      <c r="BR19" s="44"/>
-      <c r="BS19" s="44"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="31"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
       <c r="BT19" s="31"/>
       <c r="BU19" s="31"/>
       <c r="BV19" s="31"/>
       <c r="BW19" s="31"/>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="31"/>
+      <c r="BX19" s="36"/>
+      <c r="BY19" s="36"/>
       <c r="BZ19" s="36"/>
       <c r="CA19" s="36"/>
       <c r="CB19" s="36"/>
       <c r="CC19" s="36"/>
       <c r="CD19" s="36"/>
       <c r="CE19" s="36"/>
-      <c r="CF19" s="43"/>
-      <c r="CG19" s="44"/>
-      <c r="CH19" s="44"/>
-      <c r="CI19" s="44"/>
-      <c r="CJ19" s="44"/>
-      <c r="CK19" s="44"/>
-      <c r="CL19" s="44"/>
-      <c r="CM19" s="45"/>
-      <c r="CN19" s="63"/>
+      <c r="CF19" s="40"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
+      <c r="CL19" s="38"/>
+      <c r="CM19" s="39"/>
+      <c r="CN19" s="49"/>
     </row>
-    <row r="20" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="55"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="40"/>
-      <c r="BI20" s="38"/>
-      <c r="BJ20" s="38"/>
-      <c r="BK20" s="38"/>
-      <c r="BL20" s="38"/>
-      <c r="BM20" s="38"/>
-      <c r="BN20" s="38"/>
-      <c r="BO20" s="39"/>
-      <c r="BP20" s="40"/>
-      <c r="BQ20" s="38"/>
-      <c r="BR20" s="38"/>
-      <c r="BS20" s="38"/>
-      <c r="BT20" s="38"/>
-      <c r="BU20" s="38"/>
-      <c r="BV20" s="38"/>
-      <c r="BW20" s="39"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
+    <row r="20" spans="1:92" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="79"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="43"/>
+      <c r="BB20" s="43"/>
+      <c r="BC20" s="43"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="43"/>
+      <c r="BF20" s="43"/>
+      <c r="BG20" s="44"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="43"/>
+      <c r="BJ20" s="43"/>
+      <c r="BK20" s="43"/>
+      <c r="BL20" s="43"/>
+      <c r="BM20" s="43"/>
+      <c r="BN20" s="43"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="42"/>
+      <c r="BQ20" s="43"/>
+      <c r="BR20" s="43"/>
+      <c r="BS20" s="43"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="31"/>
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="31"/>
       <c r="BZ20" s="36"/>
       <c r="CA20" s="36"/>
       <c r="CB20" s="36"/>
       <c r="CC20" s="36"/>
       <c r="CD20" s="36"/>
       <c r="CE20" s="36"/>
-      <c r="CF20" s="40"/>
-      <c r="CG20" s="38"/>
-      <c r="CH20" s="38"/>
-      <c r="CI20" s="38"/>
-      <c r="CJ20" s="38"/>
-      <c r="CK20" s="38"/>
-      <c r="CL20" s="38"/>
-      <c r="CM20" s="39"/>
-      <c r="CN20" s="63"/>
+      <c r="CF20" s="42"/>
+      <c r="CG20" s="43"/>
+      <c r="CH20" s="43"/>
+      <c r="CI20" s="43"/>
+      <c r="CJ20" s="43"/>
+      <c r="CK20" s="43"/>
+      <c r="CL20" s="43"/>
+      <c r="CM20" s="44"/>
+      <c r="CN20" s="49"/>
     </row>
-    <row r="21" spans="1:92" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="21" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="67"/>
       <c r="C21" s="8"/>
       <c r="D21" s="40"/>
       <c r="E21" s="38"/>
@@ -3737,14 +3735,14 @@
       <c r="AO21" s="38"/>
       <c r="AP21" s="38"/>
       <c r="AQ21" s="39"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="55"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="79"/>
       <c r="AZ21" s="40"/>
       <c r="BA21" s="38"/>
       <c r="BB21" s="38"/>
@@ -3773,7 +3771,7 @@
       <c r="BY21" s="36"/>
       <c r="BZ21" s="36"/>
       <c r="CA21" s="36"/>
-      <c r="CB21" s="32"/>
+      <c r="CB21" s="36"/>
       <c r="CC21" s="36"/>
       <c r="CD21" s="36"/>
       <c r="CE21" s="36"/>
@@ -3785,11 +3783,11 @@
       <c r="CK21" s="38"/>
       <c r="CL21" s="38"/>
       <c r="CM21" s="39"/>
-      <c r="CN21" s="63"/>
+      <c r="CN21" s="49"/>
     </row>
     <row r="22" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>46</v>
@@ -3835,14 +3833,14 @@
       <c r="AO22" s="38"/>
       <c r="AP22" s="38"/>
       <c r="AQ22" s="39"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="54"/>
-      <c r="AT22" s="54"/>
-      <c r="AU22" s="54"/>
-      <c r="AV22" s="54"/>
-      <c r="AW22" s="54"/>
-      <c r="AX22" s="54"/>
-      <c r="AY22" s="55"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="79"/>
       <c r="AZ22" s="40"/>
       <c r="BA22" s="38"/>
       <c r="BB22" s="38"/>
@@ -3883,11 +3881,11 @@
       <c r="CK22" s="38"/>
       <c r="CL22" s="38"/>
       <c r="CM22" s="39"/>
-      <c r="CN22" s="63"/>
+      <c r="CN22" s="49"/>
     </row>
     <row r="23" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>46</v>
@@ -3933,14 +3931,14 @@
       <c r="AO23" s="38"/>
       <c r="AP23" s="38"/>
       <c r="AQ23" s="39"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="55"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="78"/>
+      <c r="AY23" s="79"/>
       <c r="AZ23" s="40"/>
       <c r="BA23" s="38"/>
       <c r="BB23" s="38"/>
@@ -3981,11 +3979,11 @@
       <c r="CK23" s="38"/>
       <c r="CL23" s="38"/>
       <c r="CM23" s="39"/>
-      <c r="CN23" s="63"/>
+      <c r="CN23" s="49"/>
     </row>
     <row r="24" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>46</v>
@@ -4031,14 +4029,14 @@
       <c r="AO24" s="38"/>
       <c r="AP24" s="38"/>
       <c r="AQ24" s="39"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="54"/>
-      <c r="AU24" s="54"/>
-      <c r="AV24" s="54"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="54"/>
-      <c r="AY24" s="55"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="78"/>
+      <c r="AY24" s="79"/>
       <c r="AZ24" s="40"/>
       <c r="BA24" s="38"/>
       <c r="BB24" s="38"/>
@@ -4079,13 +4077,15 @@
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
       <c r="CM24" s="39"/>
-      <c r="CN24" s="63"/>
+      <c r="CN24" s="49"/>
     </row>
-    <row r="25" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="81"/>
+    <row r="25" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="40"/>
       <c r="E25" s="38"/>
@@ -4127,14 +4127,14 @@
       <c r="AO25" s="38"/>
       <c r="AP25" s="38"/>
       <c r="AQ25" s="39"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
-      <c r="AU25" s="54"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="55"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="78"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="79"/>
       <c r="AZ25" s="40"/>
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
@@ -4163,7 +4163,7 @@
       <c r="BY25" s="36"/>
       <c r="BZ25" s="36"/>
       <c r="CA25" s="36"/>
-      <c r="CB25" s="36"/>
+      <c r="CB25" s="32"/>
       <c r="CC25" s="36"/>
       <c r="CD25" s="36"/>
       <c r="CE25" s="36"/>
@@ -4175,23 +4175,17 @@
       <c r="CK25" s="38"/>
       <c r="CL25" s="38"/>
       <c r="CM25" s="39"/>
-      <c r="CN25" s="63"/>
+      <c r="CN25" s="49"/>
     </row>
-    <row r="26" spans="1:92" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="26" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="69"/>
       <c r="C26" s="8"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>41</v>
-      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
@@ -4200,8 +4194,8 @@
       <c r="L26" s="40"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="39"/>
@@ -4229,14 +4223,14 @@
       <c r="AO26" s="38"/>
       <c r="AP26" s="38"/>
       <c r="AQ26" s="39"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="55"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="79"/>
       <c r="AZ26" s="40"/>
       <c r="BA26" s="38"/>
       <c r="BB26" s="38"/>
@@ -4277,19 +4271,23 @@
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="39"/>
-      <c r="CN26" s="63"/>
+      <c r="CN26" s="49"/>
     </row>
     <row r="27" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
@@ -4297,16 +4295,22 @@
       <c r="K27" s="39"/>
       <c r="L27" s="40"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="N27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="39"/>
       <c r="T27" s="40"/>
       <c r="U27" s="38"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
@@ -4327,14 +4331,14 @@
       <c r="AO27" s="38"/>
       <c r="AP27" s="38"/>
       <c r="AQ27" s="39"/>
-      <c r="AR27" s="53"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="54"/>
-      <c r="AU27" s="54"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="54"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="55"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="79"/>
       <c r="AZ27" s="40"/>
       <c r="BA27" s="38"/>
       <c r="BB27" s="38"/>
@@ -4375,11 +4379,11 @@
       <c r="CK27" s="38"/>
       <c r="CL27" s="38"/>
       <c r="CM27" s="39"/>
-      <c r="CN27" s="63"/>
+      <c r="CN27" s="49"/>
     </row>
     <row r="28" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>46</v>
@@ -4403,12 +4407,12 @@
       <c r="S28" s="39"/>
       <c r="T28" s="40"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
-      <c r="AA28" s="33"/>
+      <c r="AA28" s="39"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="38"/>
       <c r="AD28" s="38"/>
@@ -4416,7 +4420,7 @@
       <c r="AF28" s="38"/>
       <c r="AG28" s="38"/>
       <c r="AH28" s="38"/>
-      <c r="AI28" s="33"/>
+      <c r="AI28" s="39"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="38"/>
       <c r="AL28" s="38"/>
@@ -4424,15 +4428,15 @@
       <c r="AN28" s="38"/>
       <c r="AO28" s="38"/>
       <c r="AP28" s="38"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="54"/>
-      <c r="AU28" s="54"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="54"/>
-      <c r="AX28" s="54"/>
-      <c r="AY28" s="55"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="79"/>
       <c r="AZ28" s="40"/>
       <c r="BA28" s="38"/>
       <c r="BB28" s="38"/>
@@ -4440,7 +4444,7 @@
       <c r="BD28" s="38"/>
       <c r="BE28" s="38"/>
       <c r="BF28" s="38"/>
-      <c r="BG28" s="33"/>
+      <c r="BG28" s="39"/>
       <c r="BH28" s="40"/>
       <c r="BI28" s="38"/>
       <c r="BJ28" s="38"/>
@@ -4448,7 +4452,7 @@
       <c r="BL28" s="38"/>
       <c r="BM28" s="38"/>
       <c r="BN28" s="38"/>
-      <c r="BO28" s="33"/>
+      <c r="BO28" s="39"/>
       <c r="BP28" s="40"/>
       <c r="BQ28" s="38"/>
       <c r="BR28" s="38"/>
@@ -4456,11 +4460,11 @@
       <c r="BT28" s="38"/>
       <c r="BU28" s="38"/>
       <c r="BV28" s="38"/>
-      <c r="BW28" s="33"/>
+      <c r="BW28" s="39"/>
       <c r="BX28" s="36"/>
       <c r="BY28" s="36"/>
-      <c r="BZ28" s="33"/>
-      <c r="CA28" s="33"/>
+      <c r="BZ28" s="36"/>
+      <c r="CA28" s="36"/>
       <c r="CB28" s="36"/>
       <c r="CC28" s="36"/>
       <c r="CD28" s="36"/>
@@ -4473,11 +4477,11 @@
       <c r="CK28" s="38"/>
       <c r="CL28" s="38"/>
       <c r="CM28" s="39"/>
-      <c r="CN28" s="63"/>
+      <c r="CN28" s="49"/>
     </row>
     <row r="29" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>46</v>
@@ -4506,7 +4510,7 @@
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="39"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="40"/>
       <c r="AC29" s="38"/>
       <c r="AD29" s="38"/>
@@ -4514,7 +4518,7 @@
       <c r="AF29" s="38"/>
       <c r="AG29" s="38"/>
       <c r="AH29" s="38"/>
-      <c r="AI29" s="39"/>
+      <c r="AI29" s="33"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="38"/>
       <c r="AL29" s="38"/>
@@ -4522,15 +4526,15 @@
       <c r="AN29" s="38"/>
       <c r="AO29" s="38"/>
       <c r="AP29" s="38"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="55"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="78"/>
+      <c r="AY29" s="79"/>
       <c r="AZ29" s="40"/>
       <c r="BA29" s="38"/>
       <c r="BB29" s="38"/>
@@ -4538,7 +4542,7 @@
       <c r="BD29" s="38"/>
       <c r="BE29" s="38"/>
       <c r="BF29" s="38"/>
-      <c r="BG29" s="39"/>
+      <c r="BG29" s="33"/>
       <c r="BH29" s="40"/>
       <c r="BI29" s="38"/>
       <c r="BJ29" s="38"/>
@@ -4546,7 +4550,7 @@
       <c r="BL29" s="38"/>
       <c r="BM29" s="38"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="39"/>
+      <c r="BO29" s="33"/>
       <c r="BP29" s="40"/>
       <c r="BQ29" s="38"/>
       <c r="BR29" s="38"/>
@@ -4554,13 +4558,13 @@
       <c r="BT29" s="38"/>
       <c r="BU29" s="38"/>
       <c r="BV29" s="38"/>
-      <c r="BW29" s="39"/>
+      <c r="BW29" s="33"/>
       <c r="BX29" s="36"/>
       <c r="BY29" s="36"/>
-      <c r="BZ29" s="36"/>
-      <c r="CA29" s="36"/>
+      <c r="BZ29" s="33"/>
+      <c r="CA29" s="33"/>
       <c r="CB29" s="36"/>
-      <c r="CC29" s="33"/>
+      <c r="CC29" s="36"/>
       <c r="CD29" s="36"/>
       <c r="CE29" s="36"/>
       <c r="CF29" s="40"/>
@@ -4571,11 +4575,11 @@
       <c r="CK29" s="38"/>
       <c r="CL29" s="38"/>
       <c r="CM29" s="39"/>
-      <c r="CN29" s="63"/>
+      <c r="CN29" s="49"/>
     </row>
     <row r="30" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>46</v>
@@ -4621,14 +4625,14 @@
       <c r="AO30" s="38"/>
       <c r="AP30" s="38"/>
       <c r="AQ30" s="39"/>
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="54"/>
-      <c r="AT30" s="54"/>
-      <c r="AU30" s="54"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="55"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="79"/>
       <c r="AZ30" s="40"/>
       <c r="BA30" s="38"/>
       <c r="BB30" s="38"/>
@@ -4658,9 +4662,9 @@
       <c r="BZ30" s="36"/>
       <c r="CA30" s="36"/>
       <c r="CB30" s="36"/>
-      <c r="CC30" s="36"/>
-      <c r="CD30" s="33"/>
-      <c r="CE30" s="33"/>
+      <c r="CC30" s="33"/>
+      <c r="CD30" s="36"/>
+      <c r="CE30" s="36"/>
       <c r="CF30" s="40"/>
       <c r="CG30" s="38"/>
       <c r="CH30" s="38"/>
@@ -4669,13 +4673,15 @@
       <c r="CK30" s="38"/>
       <c r="CL30" s="38"/>
       <c r="CM30" s="39"/>
-      <c r="CN30" s="63"/>
+      <c r="CN30" s="49"/>
     </row>
-    <row r="31" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="83"/>
+    <row r="31" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="D31" s="40"/>
       <c r="E31" s="38"/>
@@ -4684,7 +4690,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="39"/>
       <c r="L31" s="40"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
@@ -4717,14 +4723,14 @@
       <c r="AO31" s="38"/>
       <c r="AP31" s="38"/>
       <c r="AQ31" s="39"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="54"/>
-      <c r="AY31" s="55"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="78"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="78"/>
+      <c r="AW31" s="78"/>
+      <c r="AX31" s="78"/>
+      <c r="AY31" s="79"/>
       <c r="AZ31" s="40"/>
       <c r="BA31" s="38"/>
       <c r="BB31" s="38"/>
@@ -4755,8 +4761,8 @@
       <c r="CA31" s="36"/>
       <c r="CB31" s="36"/>
       <c r="CC31" s="36"/>
-      <c r="CD31" s="36"/>
-      <c r="CE31" s="36"/>
+      <c r="CD31" s="33"/>
+      <c r="CE31" s="33"/>
       <c r="CF31" s="40"/>
       <c r="CG31" s="38"/>
       <c r="CH31" s="38"/>
@@ -4765,15 +4771,13 @@
       <c r="CK31" s="38"/>
       <c r="CL31" s="38"/>
       <c r="CM31" s="39"/>
-      <c r="CN31" s="63"/>
+      <c r="CN31" s="49"/>
     </row>
-    <row r="32" spans="1:92" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="32" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="71"/>
       <c r="C32" s="8"/>
       <c r="D32" s="40"/>
       <c r="E32" s="38"/>
@@ -4782,7 +4786,7 @@
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="40"/>
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
@@ -4815,14 +4819,14 @@
       <c r="AO32" s="38"/>
       <c r="AP32" s="38"/>
       <c r="AQ32" s="39"/>
-      <c r="AR32" s="53"/>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="54"/>
-      <c r="AU32" s="54"/>
-      <c r="AV32" s="54"/>
-      <c r="AW32" s="54"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="55"/>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="78"/>
+      <c r="AY32" s="79"/>
       <c r="AZ32" s="40"/>
       <c r="BA32" s="38"/>
       <c r="BB32" s="38"/>
@@ -4833,7 +4837,7 @@
       <c r="BG32" s="39"/>
       <c r="BH32" s="40"/>
       <c r="BI32" s="38"/>
-      <c r="BJ32" s="34"/>
+      <c r="BJ32" s="38"/>
       <c r="BK32" s="38"/>
       <c r="BL32" s="38"/>
       <c r="BM32" s="38"/>
@@ -4863,11 +4867,15 @@
       <c r="CK32" s="38"/>
       <c r="CL32" s="38"/>
       <c r="CM32" s="39"/>
-      <c r="CN32" s="63"/>
+      <c r="CN32" s="49"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
+    <row r="33" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="D33" s="40"/>
       <c r="E33" s="38"/>
@@ -4876,7 +4884,9 @@
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="L33" s="40"/>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
@@ -4909,14 +4919,14 @@
       <c r="AO33" s="38"/>
       <c r="AP33" s="38"/>
       <c r="AQ33" s="39"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="54"/>
-      <c r="AT33" s="54"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="54"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="54"/>
-      <c r="AY33" s="55"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="78"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="79"/>
       <c r="AZ33" s="40"/>
       <c r="BA33" s="38"/>
       <c r="BB33" s="38"/>
@@ -4927,7 +4937,7 @@
       <c r="BG33" s="39"/>
       <c r="BH33" s="40"/>
       <c r="BI33" s="38"/>
-      <c r="BJ33" s="38"/>
+      <c r="BJ33" s="34"/>
       <c r="BK33" s="38"/>
       <c r="BL33" s="38"/>
       <c r="BM33" s="38"/>
@@ -4957,7 +4967,7 @@
       <c r="CK33" s="38"/>
       <c r="CL33" s="38"/>
       <c r="CM33" s="39"/>
-      <c r="CN33" s="63"/>
+      <c r="CN33" s="49"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -5003,14 +5013,14 @@
       <c r="AO34" s="38"/>
       <c r="AP34" s="38"/>
       <c r="AQ34" s="39"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="54"/>
-      <c r="AT34" s="54"/>
-      <c r="AU34" s="54"/>
-      <c r="AV34" s="54"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="55"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="78"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="78"/>
+      <c r="AY34" s="79"/>
       <c r="AZ34" s="40"/>
       <c r="BA34" s="38"/>
       <c r="BB34" s="38"/>
@@ -5051,7 +5061,7 @@
       <c r="CK34" s="38"/>
       <c r="CL34" s="38"/>
       <c r="CM34" s="39"/>
-      <c r="CN34" s="63"/>
+      <c r="CN34" s="49"/>
     </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -5097,14 +5107,14 @@
       <c r="AO35" s="38"/>
       <c r="AP35" s="38"/>
       <c r="AQ35" s="39"/>
-      <c r="AR35" s="53"/>
-      <c r="AS35" s="54"/>
-      <c r="AT35" s="54"/>
-      <c r="AU35" s="54"/>
-      <c r="AV35" s="54"/>
-      <c r="AW35" s="54"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="55"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="78"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="79"/>
       <c r="AZ35" s="40"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="38"/>
@@ -5145,7 +5155,7 @@
       <c r="CK35" s="38"/>
       <c r="CL35" s="38"/>
       <c r="CM35" s="39"/>
-      <c r="CN35" s="63"/>
+      <c r="CN35" s="49"/>
     </row>
     <row r="36" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -5191,14 +5201,14 @@
       <c r="AO36" s="38"/>
       <c r="AP36" s="38"/>
       <c r="AQ36" s="39"/>
-      <c r="AR36" s="53"/>
-      <c r="AS36" s="54"/>
-      <c r="AT36" s="54"/>
-      <c r="AU36" s="54"/>
-      <c r="AV36" s="54"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="55"/>
+      <c r="AR36" s="77"/>
+      <c r="AS36" s="78"/>
+      <c r="AT36" s="78"/>
+      <c r="AU36" s="78"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
+      <c r="AX36" s="78"/>
+      <c r="AY36" s="79"/>
       <c r="AZ36" s="40"/>
       <c r="BA36" s="38"/>
       <c r="BB36" s="38"/>
@@ -5239,223 +5249,294 @@
       <c r="CK36" s="38"/>
       <c r="CL36" s="38"/>
       <c r="CM36" s="39"/>
-      <c r="CN36" s="63"/>
+      <c r="CN36" s="49"/>
     </row>
-    <row r="37" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="47"/>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="57"/>
-      <c r="AV37" s="57"/>
-      <c r="AW37" s="57"/>
-      <c r="AX37" s="57"/>
-      <c r="AY37" s="58"/>
-      <c r="AZ37" s="46"/>
-      <c r="BA37" s="47"/>
-      <c r="BB37" s="47"/>
-      <c r="BC37" s="47"/>
-      <c r="BD37" s="47"/>
-      <c r="BE37" s="47"/>
-      <c r="BF37" s="47"/>
-      <c r="BG37" s="48"/>
-      <c r="BH37" s="46"/>
-      <c r="BI37" s="47"/>
-      <c r="BJ37" s="47"/>
-      <c r="BK37" s="47"/>
-      <c r="BL37" s="47"/>
-      <c r="BM37" s="47"/>
-      <c r="BN37" s="47"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="46"/>
-      <c r="BQ37" s="47"/>
-      <c r="BR37" s="47"/>
-      <c r="BS37" s="47"/>
-      <c r="BT37" s="47"/>
-      <c r="BU37" s="47"/>
-      <c r="BV37" s="47"/>
-      <c r="BW37" s="48"/>
-      <c r="BX37" s="46"/>
-      <c r="BY37" s="47"/>
-      <c r="BZ37" s="47"/>
-      <c r="CA37" s="47"/>
-      <c r="CB37" s="47"/>
-      <c r="CC37" s="47"/>
-      <c r="CD37" s="47"/>
-      <c r="CE37" s="48"/>
-      <c r="CF37" s="46"/>
-      <c r="CG37" s="47"/>
-      <c r="CH37" s="47"/>
-      <c r="CI37" s="47"/>
-      <c r="CJ37" s="47"/>
-      <c r="CK37" s="47"/>
-      <c r="CL37" s="47"/>
-      <c r="CM37" s="48"/>
-      <c r="CN37" s="63"/>
+    <row r="37" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="40"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="78"/>
+      <c r="AT37" s="78"/>
+      <c r="AU37" s="78"/>
+      <c r="AV37" s="78"/>
+      <c r="AW37" s="78"/>
+      <c r="AX37" s="78"/>
+      <c r="AY37" s="79"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="39"/>
+      <c r="BH37" s="40"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
+      <c r="BM37" s="38"/>
+      <c r="BN37" s="38"/>
+      <c r="BO37" s="39"/>
+      <c r="BP37" s="40"/>
+      <c r="BQ37" s="38"/>
+      <c r="BR37" s="38"/>
+      <c r="BS37" s="38"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="38"/>
+      <c r="BW37" s="39"/>
+      <c r="BX37" s="36"/>
+      <c r="BY37" s="36"/>
+      <c r="BZ37" s="36"/>
+      <c r="CA37" s="36"/>
+      <c r="CB37" s="36"/>
+      <c r="CC37" s="36"/>
+      <c r="CD37" s="36"/>
+      <c r="CE37" s="36"/>
+      <c r="CF37" s="40"/>
+      <c r="CG37" s="38"/>
+      <c r="CH37" s="38"/>
+      <c r="CI37" s="38"/>
+      <c r="CJ37" s="38"/>
+      <c r="CK37" s="38"/>
+      <c r="CL37" s="38"/>
+      <c r="CM37" s="39"/>
+      <c r="CN37" s="49"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="80"/>
+      <c r="AS38" s="81"/>
+      <c r="AT38" s="81"/>
+      <c r="AU38" s="81"/>
+      <c r="AV38" s="81"/>
+      <c r="AW38" s="81"/>
+      <c r="AX38" s="81"/>
+      <c r="AY38" s="82"/>
+      <c r="AZ38" s="45"/>
+      <c r="BA38" s="46"/>
+      <c r="BB38" s="46"/>
+      <c r="BC38" s="46"/>
+      <c r="BD38" s="46"/>
+      <c r="BE38" s="46"/>
+      <c r="BF38" s="46"/>
+      <c r="BG38" s="47"/>
+      <c r="BH38" s="45"/>
+      <c r="BI38" s="46"/>
+      <c r="BJ38" s="46"/>
+      <c r="BK38" s="46"/>
+      <c r="BL38" s="46"/>
+      <c r="BM38" s="46"/>
+      <c r="BN38" s="46"/>
+      <c r="BO38" s="47"/>
+      <c r="BP38" s="45"/>
+      <c r="BQ38" s="46"/>
+      <c r="BR38" s="46"/>
+      <c r="BS38" s="46"/>
+      <c r="BT38" s="46"/>
+      <c r="BU38" s="46"/>
+      <c r="BV38" s="46"/>
+      <c r="BW38" s="47"/>
+      <c r="BX38" s="45"/>
+      <c r="BY38" s="46"/>
+      <c r="BZ38" s="46"/>
+      <c r="CA38" s="46"/>
+      <c r="CB38" s="46"/>
+      <c r="CC38" s="46"/>
+      <c r="CD38" s="46"/>
+      <c r="CE38" s="47"/>
+      <c r="CF38" s="45"/>
+      <c r="CG38" s="46"/>
+      <c r="CH38" s="46"/>
+      <c r="CI38" s="46"/>
+      <c r="CJ38" s="46"/>
+      <c r="CK38" s="46"/>
+      <c r="CL38" s="46"/>
+      <c r="CM38" s="47"/>
+      <c r="CN38" s="49"/>
+    </row>
+    <row r="39" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="67"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="67"/>
-      <c r="AR38" s="67"/>
-      <c r="AS38" s="67"/>
-      <c r="AT38" s="67"/>
-      <c r="AU38" s="67"/>
-      <c r="AV38" s="67"/>
-      <c r="AW38" s="67"/>
-      <c r="AX38" s="67"/>
-      <c r="AY38" s="67"/>
-      <c r="AZ38" s="67"/>
-      <c r="BA38" s="67"/>
-      <c r="BB38" s="67"/>
-      <c r="BC38" s="67"/>
-      <c r="BD38" s="67"/>
-      <c r="BE38" s="67"/>
-      <c r="BF38" s="67"/>
-      <c r="BG38" s="67"/>
-      <c r="BH38" s="67"/>
-      <c r="BI38" s="67"/>
-      <c r="BJ38" s="67"/>
-      <c r="BK38" s="67"/>
-      <c r="BL38" s="67"/>
-      <c r="BM38" s="67"/>
-      <c r="BN38" s="67"/>
-      <c r="BO38" s="67"/>
-      <c r="BP38" s="67"/>
-      <c r="BQ38" s="67"/>
-      <c r="BR38" s="67"/>
-      <c r="BS38" s="67"/>
-      <c r="BT38" s="67"/>
-      <c r="BU38" s="67"/>
-      <c r="BV38" s="67"/>
-      <c r="BW38" s="67"/>
-      <c r="BX38" s="67"/>
-      <c r="BY38" s="67"/>
-      <c r="BZ38" s="67"/>
-      <c r="CA38" s="67"/>
-      <c r="CB38" s="67"/>
-      <c r="CC38" s="67"/>
-      <c r="CD38" s="67"/>
-      <c r="CE38" s="67"/>
-      <c r="CF38" s="67"/>
-      <c r="CG38" s="67"/>
-      <c r="CH38" s="67"/>
-      <c r="CI38" s="67"/>
-      <c r="CJ38" s="67"/>
-      <c r="CK38" s="67"/>
-      <c r="CL38" s="67"/>
-      <c r="CM38" s="67"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="53"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="53"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="53"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="53"/>
+      <c r="BA39" s="53"/>
+      <c r="BB39" s="53"/>
+      <c r="BC39" s="53"/>
+      <c r="BD39" s="53"/>
+      <c r="BE39" s="53"/>
+      <c r="BF39" s="53"/>
+      <c r="BG39" s="53"/>
+      <c r="BH39" s="53"/>
+      <c r="BI39" s="53"/>
+      <c r="BJ39" s="53"/>
+      <c r="BK39" s="53"/>
+      <c r="BL39" s="53"/>
+      <c r="BM39" s="53"/>
+      <c r="BN39" s="53"/>
+      <c r="BO39" s="53"/>
+      <c r="BP39" s="53"/>
+      <c r="BQ39" s="53"/>
+      <c r="BR39" s="53"/>
+      <c r="BS39" s="53"/>
+      <c r="BT39" s="53"/>
+      <c r="BU39" s="53"/>
+      <c r="BV39" s="53"/>
+      <c r="BW39" s="53"/>
+      <c r="BX39" s="53"/>
+      <c r="BY39" s="53"/>
+      <c r="BZ39" s="53"/>
+      <c r="CA39" s="53"/>
+      <c r="CB39" s="53"/>
+      <c r="CC39" s="53"/>
+      <c r="CD39" s="53"/>
+      <c r="CE39" s="53"/>
+      <c r="CF39" s="53"/>
+      <c r="CG39" s="53"/>
+      <c r="CH39" s="53"/>
+      <c r="CI39" s="53"/>
+      <c r="CJ39" s="53"/>
+      <c r="CK39" s="53"/>
+      <c r="CL39" s="53"/>
+      <c r="CM39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="CN4:CN37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A38:CM38"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR6:AY37"/>
+    <mergeCell ref="AR6:AY38"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="AF4:AI4"/>
     <mergeCell ref="T4:W4"/>
@@ -5469,12 +5550,35 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="CN4:CN38"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A39:CM39"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:B10 B16:B19 B12:B14 B21:B24 B26:B30 B32:B37">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="B17:B20 B13:B15 B22:B25 B27:B31 B33:B38 B7:B11">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5512,7 +5616,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B7:B10 B16:B19 B12:B14 B21:B24 B26:B30 B32:B37</xm:sqref>
+          <xm:sqref>B17:B20 B13:B15 B22:B25 B27:B31 B33:B38 B7:B11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/00 - Documents/2_PASCHE_Planning_2023.xlsx
+++ b/00 - Documents/2_PASCHE_Planning_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF92B031-943A-42E1-BE5F-4B2A62B34EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70DB67-1469-4AA8-88F0-D66DEB161EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Tâches</t>
   </si>
@@ -1122,13 +1122,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
+      <xdr:colOff>19842</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1145,8 +1145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3887821" y="662609"/>
-          <a:ext cx="1263962" cy="6584415"/>
+          <a:off x="3887820" y="662609"/>
+          <a:ext cx="3218658" cy="6584415"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1558,10 +1558,10 @@
   <dimension ref="A1:CN39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2908,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="40"/>
@@ -3008,7 +3008,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="40"/>
@@ -3028,8 +3028,12 @@
       <c r="R14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="41"/>
+      <c r="S14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
       <c r="W14" s="38"/>
@@ -3108,7 +3112,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="40"/>
@@ -3127,9 +3131,15 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="38"/>
+      <c r="T15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -3302,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="40"/>
@@ -3324,7 +3334,9 @@
       <c r="T17" s="40"/>
       <c r="U17" s="38"/>
       <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
+      <c r="W17" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
@@ -3400,7 +3412,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="40"/>
@@ -3423,10 +3435,18 @@
       <c r="U18" s="38"/>
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="X18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="AB18" s="31"/>
       <c r="AC18" s="31"/>
       <c r="AD18" s="31"/>
@@ -4278,7 +4298,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="40"/>
@@ -4386,7 +4406,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="40"/>
@@ -4408,7 +4428,9 @@
       <c r="T28" s="40"/>
       <c r="U28" s="38"/>
       <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
+      <c r="W28" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>

--- a/00 - Documents/2_PASCHE_Planning_2023.xlsx
+++ b/00 - Documents/2_PASCHE_Planning_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FutnetSingleMaster\00 - Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPI\futnetsinglemaster\00 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70DB67-1469-4AA8-88F0-D66DEB161EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E6D74-F01D-471E-9C06-EA9ED372A7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>Tâches</t>
   </si>
@@ -965,6 +965,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -999,14 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1021,50 +1065,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,8 +1127,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1146,7 +1146,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3887820" y="662609"/>
-          <a:ext cx="3218658" cy="6584415"/>
+          <a:ext cx="6043028" cy="6584415"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1561,7 +1561,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W28" sqref="W28"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1576,207 +1576,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="64">
         <v>145341</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="56"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="56" t="s">
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="56"/>
-      <c r="CH2" s="56"/>
-      <c r="CI2" s="56"/>
-      <c r="CJ2" s="56"/>
-      <c r="CK2" s="56"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="56"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="69"/>
+      <c r="CK2" s="69"/>
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="69"/>
     </row>
     <row r="3" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="57"/>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="57"/>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="57"/>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="57"/>
-      <c r="CM3" s="57"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="70"/>
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="70"/>
+      <c r="CG3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
     </row>
     <row r="4" spans="1:92" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1785,144 +1785,144 @@
       <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="58">
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60">
         <v>45068</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="72" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="58">
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60">
         <v>45069</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="72" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="58">
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="60">
         <v>45070</v>
       </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="72" t="s">
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="58">
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="60">
         <v>45071</v>
       </c>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="72" t="s">
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="58">
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60">
         <v>45072</v>
       </c>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="72" t="s">
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="58">
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="60">
         <v>45075</v>
       </c>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="72" t="s">
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="58">
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="60">
         <v>45076</v>
       </c>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="72" t="s">
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="58">
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="60">
         <v>45077</v>
       </c>
-      <c r="BM4" s="58"/>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="72" t="s">
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="61"/>
+      <c r="BP4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="73"/>
-      <c r="BR4" s="73"/>
-      <c r="BS4" s="73"/>
-      <c r="BT4" s="58">
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="60">
         <v>45078</v>
       </c>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="72" t="s">
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="61"/>
+      <c r="BX4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="73"/>
-      <c r="BZ4" s="73"/>
-      <c r="CA4" s="73"/>
-      <c r="CB4" s="58">
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="60">
         <v>45079</v>
       </c>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="72" t="s">
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="61"/>
+      <c r="CF4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="73"/>
-      <c r="CH4" s="73"/>
-      <c r="CI4" s="73"/>
-      <c r="CJ4" s="58">
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="60">
         <v>45082</v>
       </c>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="58"/>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="49" t="s">
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="60"/>
+      <c r="CM4" s="61"/>
+      <c r="CN4" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2193,13 +2193,13 @@
       <c r="CM5" s="5">
         <v>8</v>
       </c>
-      <c r="CN5" s="49"/>
+      <c r="CN5" s="62"/>
     </row>
     <row r="6" spans="1:92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="6"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2241,16 +2241,16 @@
       <c r="AO6" s="36"/>
       <c r="AP6" s="36"/>
       <c r="AQ6" s="37"/>
-      <c r="AR6" s="74" t="s">
+      <c r="AR6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="76"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="51"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
       <c r="BB6" s="36"/>
@@ -2291,7 +2291,7 @@
       <c r="CK6" s="36"/>
       <c r="CL6" s="36"/>
       <c r="CM6" s="37"/>
-      <c r="CN6" s="49"/>
+      <c r="CN6" s="62"/>
     </row>
     <row r="7" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
@@ -2343,14 +2343,14 @@
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
       <c r="AQ7" s="39"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="79"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="54"/>
       <c r="AZ7" s="40"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
@@ -2391,7 +2391,7 @@
       <c r="CK7" s="38"/>
       <c r="CL7" s="38"/>
       <c r="CM7" s="39"/>
-      <c r="CN7" s="49"/>
+      <c r="CN7" s="62"/>
     </row>
     <row r="8" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -2443,14 +2443,14 @@
       <c r="AO8" s="38"/>
       <c r="AP8" s="38"/>
       <c r="AQ8" s="39"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="79"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="54"/>
       <c r="AZ8" s="40"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
@@ -2491,7 +2491,7 @@
       <c r="CK8" s="38"/>
       <c r="CL8" s="38"/>
       <c r="CM8" s="39"/>
-      <c r="CN8" s="49"/>
+      <c r="CN8" s="62"/>
     </row>
     <row r="9" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
@@ -2551,14 +2551,14 @@
       <c r="AO9" s="38"/>
       <c r="AP9" s="38"/>
       <c r="AQ9" s="39"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="79"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="54"/>
       <c r="AZ9" s="40"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
@@ -2599,7 +2599,7 @@
       <c r="CK9" s="38"/>
       <c r="CL9" s="38"/>
       <c r="CM9" s="39"/>
-      <c r="CN9" s="49"/>
+      <c r="CN9" s="62"/>
     </row>
     <row r="10" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -2655,14 +2655,14 @@
       <c r="AO10" s="38"/>
       <c r="AP10" s="38"/>
       <c r="AQ10" s="39"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="79"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="54"/>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
@@ -2703,7 +2703,7 @@
       <c r="CK10" s="38"/>
       <c r="CL10" s="38"/>
       <c r="CM10" s="39"/>
-      <c r="CN10" s="49"/>
+      <c r="CN10" s="62"/>
     </row>
     <row r="11" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
@@ -2757,14 +2757,14 @@
       <c r="AO11" s="38"/>
       <c r="AP11" s="38"/>
       <c r="AQ11" s="39"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="79"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="54"/>
       <c r="AZ11" s="40"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
@@ -2805,13 +2805,13 @@
       <c r="CK11" s="38"/>
       <c r="CL11" s="38"/>
       <c r="CM11" s="39"/>
-      <c r="CN11" s="49"/>
+      <c r="CN11" s="62"/>
     </row>
     <row r="12" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="8"/>
       <c r="D12" s="40"/>
       <c r="E12" s="38"/>
@@ -2853,14 +2853,14 @@
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
       <c r="AQ12" s="39"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="79"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="54"/>
       <c r="AZ12" s="40"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
@@ -2901,7 +2901,7 @@
       <c r="CK12" s="38"/>
       <c r="CL12" s="38"/>
       <c r="CM12" s="39"/>
-      <c r="CN12" s="49"/>
+      <c r="CN12" s="62"/>
     </row>
     <row r="13" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
@@ -2953,14 +2953,14 @@
       <c r="AO13" s="38"/>
       <c r="AP13" s="38"/>
       <c r="AQ13" s="39"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="79"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="54"/>
       <c r="AZ13" s="40"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
@@ -3001,7 +3001,7 @@
       <c r="CK13" s="38"/>
       <c r="CL13" s="38"/>
       <c r="CM13" s="39"/>
-      <c r="CN13" s="49"/>
+      <c r="CN13" s="62"/>
     </row>
     <row r="14" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
@@ -3057,14 +3057,14 @@
       <c r="AO14" s="38"/>
       <c r="AP14" s="38"/>
       <c r="AQ14" s="39"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="79"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="54"/>
       <c r="AZ14" s="40"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
@@ -3105,7 +3105,7 @@
       <c r="CK14" s="38"/>
       <c r="CL14" s="38"/>
       <c r="CM14" s="39"/>
-      <c r="CN14" s="49"/>
+      <c r="CN14" s="62"/>
     </row>
     <row r="15" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
@@ -3161,14 +3161,14 @@
       <c r="AO15" s="38"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="39"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="79"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="54"/>
       <c r="AZ15" s="40"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
@@ -3209,13 +3209,13 @@
       <c r="CK15" s="38"/>
       <c r="CL15" s="38"/>
       <c r="CM15" s="39"/>
-      <c r="CN15" s="49"/>
+      <c r="CN15" s="62"/>
     </row>
     <row r="16" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="8"/>
       <c r="D16" s="40"/>
       <c r="E16" s="38"/>
@@ -3257,14 +3257,14 @@
       <c r="AO16" s="38"/>
       <c r="AP16" s="38"/>
       <c r="AQ16" s="39"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="79"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="54"/>
       <c r="AZ16" s="40"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
@@ -3305,7 +3305,7 @@
       <c r="CK16" s="38"/>
       <c r="CL16" s="38"/>
       <c r="CM16" s="39"/>
-      <c r="CN16" s="49"/>
+      <c r="CN16" s="62"/>
     </row>
     <row r="17" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
@@ -3357,14 +3357,14 @@
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="39"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="79"/>
+      <c r="AR17" s="52"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="54"/>
       <c r="AZ17" s="40"/>
       <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
@@ -3405,14 +3405,14 @@
       <c r="CK17" s="38"/>
       <c r="CL17" s="38"/>
       <c r="CM17" s="39"/>
-      <c r="CN17" s="49"/>
+      <c r="CN17" s="62"/>
     </row>
     <row r="18" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="40"/>
@@ -3447,30 +3447,62 @@
       <c r="AA18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="79"/>
+      <c r="AB18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="54"/>
       <c r="AZ18" s="31"/>
       <c r="BA18" s="31"/>
       <c r="BB18" s="31"/>
@@ -3511,7 +3543,7 @@
       <c r="CK18" s="38"/>
       <c r="CL18" s="38"/>
       <c r="CM18" s="39"/>
-      <c r="CN18" s="49"/>
+      <c r="CN18" s="62"/>
     </row>
     <row r="19" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
@@ -3561,14 +3593,14 @@
       <c r="AO19" s="38"/>
       <c r="AP19" s="38"/>
       <c r="AQ19" s="39"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="79"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="54"/>
       <c r="AZ19" s="40"/>
       <c r="BA19" s="38"/>
       <c r="BB19" s="38"/>
@@ -3609,7 +3641,7 @@
       <c r="CK19" s="38"/>
       <c r="CL19" s="38"/>
       <c r="CM19" s="39"/>
-      <c r="CN19" s="49"/>
+      <c r="CN19" s="62"/>
     </row>
     <row r="20" spans="1:92" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
@@ -3659,14 +3691,14 @@
       <c r="AO20" s="43"/>
       <c r="AP20" s="43"/>
       <c r="AQ20" s="44"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="79"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="54"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="43"/>
       <c r="BB20" s="43"/>
@@ -3707,13 +3739,13 @@
       <c r="CK20" s="43"/>
       <c r="CL20" s="43"/>
       <c r="CM20" s="44"/>
-      <c r="CN20" s="49"/>
+      <c r="CN20" s="62"/>
     </row>
     <row r="21" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="8"/>
       <c r="D21" s="40"/>
       <c r="E21" s="38"/>
@@ -3755,14 +3787,14 @@
       <c r="AO21" s="38"/>
       <c r="AP21" s="38"/>
       <c r="AQ21" s="39"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="79"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="53"/>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="54"/>
       <c r="AZ21" s="40"/>
       <c r="BA21" s="38"/>
       <c r="BB21" s="38"/>
@@ -3803,7 +3835,7 @@
       <c r="CK21" s="38"/>
       <c r="CL21" s="38"/>
       <c r="CM21" s="39"/>
-      <c r="CN21" s="49"/>
+      <c r="CN21" s="62"/>
     </row>
     <row r="22" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
@@ -3853,14 +3885,14 @@
       <c r="AO22" s="38"/>
       <c r="AP22" s="38"/>
       <c r="AQ22" s="39"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="79"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="54"/>
       <c r="AZ22" s="40"/>
       <c r="BA22" s="38"/>
       <c r="BB22" s="38"/>
@@ -3901,7 +3933,7 @@
       <c r="CK22" s="38"/>
       <c r="CL22" s="38"/>
       <c r="CM22" s="39"/>
-      <c r="CN22" s="49"/>
+      <c r="CN22" s="62"/>
     </row>
     <row r="23" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
@@ -3951,14 +3983,14 @@
       <c r="AO23" s="38"/>
       <c r="AP23" s="38"/>
       <c r="AQ23" s="39"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="78"/>
-      <c r="AT23" s="78"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="78"/>
-      <c r="AY23" s="79"/>
+      <c r="AR23" s="52"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="54"/>
       <c r="AZ23" s="40"/>
       <c r="BA23" s="38"/>
       <c r="BB23" s="38"/>
@@ -3999,7 +4031,7 @@
       <c r="CK23" s="38"/>
       <c r="CL23" s="38"/>
       <c r="CM23" s="39"/>
-      <c r="CN23" s="49"/>
+      <c r="CN23" s="62"/>
     </row>
     <row r="24" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
@@ -4049,14 +4081,14 @@
       <c r="AO24" s="38"/>
       <c r="AP24" s="38"/>
       <c r="AQ24" s="39"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="78"/>
-      <c r="AT24" s="78"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="78"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="79"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="54"/>
       <c r="AZ24" s="40"/>
       <c r="BA24" s="38"/>
       <c r="BB24" s="38"/>
@@ -4097,7 +4129,7 @@
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
       <c r="CM24" s="39"/>
-      <c r="CN24" s="49"/>
+      <c r="CN24" s="62"/>
     </row>
     <row r="25" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
@@ -4147,14 +4179,14 @@
       <c r="AO25" s="38"/>
       <c r="AP25" s="38"/>
       <c r="AQ25" s="39"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="78"/>
-      <c r="AT25" s="78"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="79"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="54"/>
       <c r="AZ25" s="40"/>
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
@@ -4195,13 +4227,13 @@
       <c r="CK25" s="38"/>
       <c r="CL25" s="38"/>
       <c r="CM25" s="39"/>
-      <c r="CN25" s="49"/>
+      <c r="CN25" s="62"/>
     </row>
     <row r="26" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="8"/>
       <c r="D26" s="40"/>
       <c r="E26" s="38"/>
@@ -4243,14 +4275,14 @@
       <c r="AO26" s="38"/>
       <c r="AP26" s="38"/>
       <c r="AQ26" s="39"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="78"/>
-      <c r="AT26" s="78"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="78"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="78"/>
-      <c r="AY26" s="79"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="54"/>
       <c r="AZ26" s="40"/>
       <c r="BA26" s="38"/>
       <c r="BB26" s="38"/>
@@ -4291,7 +4323,7 @@
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="39"/>
-      <c r="CN26" s="49"/>
+      <c r="CN26" s="62"/>
     </row>
     <row r="27" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
@@ -4351,14 +4383,14 @@
       <c r="AO27" s="38"/>
       <c r="AP27" s="38"/>
       <c r="AQ27" s="39"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="79"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="54"/>
       <c r="AZ27" s="40"/>
       <c r="BA27" s="38"/>
       <c r="BB27" s="38"/>
@@ -4399,14 +4431,14 @@
       <c r="CK27" s="38"/>
       <c r="CL27" s="38"/>
       <c r="CM27" s="39"/>
-      <c r="CN27" s="49"/>
+      <c r="CN27" s="62"/>
     </row>
     <row r="28" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="40"/>
@@ -4451,14 +4483,14 @@
       <c r="AO28" s="38"/>
       <c r="AP28" s="38"/>
       <c r="AQ28" s="39"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="79"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="54"/>
       <c r="AZ28" s="40"/>
       <c r="BA28" s="38"/>
       <c r="BB28" s="38"/>
@@ -4499,14 +4531,14 @@
       <c r="CK28" s="38"/>
       <c r="CL28" s="38"/>
       <c r="CM28" s="39"/>
-      <c r="CN28" s="49"/>
+      <c r="CN28" s="62"/>
     </row>
     <row r="29" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="40"/>
@@ -4532,7 +4564,9 @@
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="33"/>
+      <c r="AA29" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="AB29" s="40"/>
       <c r="AC29" s="38"/>
       <c r="AD29" s="38"/>
@@ -4540,7 +4574,9 @@
       <c r="AF29" s="38"/>
       <c r="AG29" s="38"/>
       <c r="AH29" s="38"/>
-      <c r="AI29" s="33"/>
+      <c r="AI29" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="38"/>
       <c r="AL29" s="38"/>
@@ -4548,15 +4584,17 @@
       <c r="AN29" s="38"/>
       <c r="AO29" s="38"/>
       <c r="AP29" s="38"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="79"/>
+      <c r="AQ29" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="54"/>
       <c r="AZ29" s="40"/>
       <c r="BA29" s="38"/>
       <c r="BB29" s="38"/>
@@ -4597,7 +4635,7 @@
       <c r="CK29" s="38"/>
       <c r="CL29" s="38"/>
       <c r="CM29" s="39"/>
-      <c r="CN29" s="49"/>
+      <c r="CN29" s="62"/>
     </row>
     <row r="30" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
@@ -4647,14 +4685,14 @@
       <c r="AO30" s="38"/>
       <c r="AP30" s="38"/>
       <c r="AQ30" s="39"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="78"/>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="79"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="54"/>
       <c r="AZ30" s="40"/>
       <c r="BA30" s="38"/>
       <c r="BB30" s="38"/>
@@ -4695,7 +4733,7 @@
       <c r="CK30" s="38"/>
       <c r="CL30" s="38"/>
       <c r="CM30" s="39"/>
-      <c r="CN30" s="49"/>
+      <c r="CN30" s="62"/>
     </row>
     <row r="31" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
@@ -4745,14 +4783,14 @@
       <c r="AO31" s="38"/>
       <c r="AP31" s="38"/>
       <c r="AQ31" s="39"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="78"/>
-      <c r="AT31" s="78"/>
-      <c r="AU31" s="78"/>
-      <c r="AV31" s="78"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="78"/>
-      <c r="AY31" s="79"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="54"/>
       <c r="AZ31" s="40"/>
       <c r="BA31" s="38"/>
       <c r="BB31" s="38"/>
@@ -4793,13 +4831,13 @@
       <c r="CK31" s="38"/>
       <c r="CL31" s="38"/>
       <c r="CM31" s="39"/>
-      <c r="CN31" s="49"/>
+      <c r="CN31" s="62"/>
     </row>
     <row r="32" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="71"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="8"/>
       <c r="D32" s="40"/>
       <c r="E32" s="38"/>
@@ -4841,14 +4879,14 @@
       <c r="AO32" s="38"/>
       <c r="AP32" s="38"/>
       <c r="AQ32" s="39"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="78"/>
-      <c r="AU32" s="78"/>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="78"/>
-      <c r="AY32" s="79"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="53"/>
+      <c r="AU32" s="53"/>
+      <c r="AV32" s="53"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="54"/>
       <c r="AZ32" s="40"/>
       <c r="BA32" s="38"/>
       <c r="BB32" s="38"/>
@@ -4889,7 +4927,7 @@
       <c r="CK32" s="38"/>
       <c r="CL32" s="38"/>
       <c r="CM32" s="39"/>
-      <c r="CN32" s="49"/>
+      <c r="CN32" s="62"/>
     </row>
     <row r="33" spans="1:92" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
@@ -4941,14 +4979,14 @@
       <c r="AO33" s="38"/>
       <c r="AP33" s="38"/>
       <c r="AQ33" s="39"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="78"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="78"/>
-      <c r="AY33" s="79"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="53"/>
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="54"/>
       <c r="AZ33" s="40"/>
       <c r="BA33" s="38"/>
       <c r="BB33" s="38"/>
@@ -4989,7 +5027,7 @@
       <c r="CK33" s="38"/>
       <c r="CL33" s="38"/>
       <c r="CM33" s="39"/>
-      <c r="CN33" s="49"/>
+      <c r="CN33" s="62"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -5035,14 +5073,14 @@
       <c r="AO34" s="38"/>
       <c r="AP34" s="38"/>
       <c r="AQ34" s="39"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="78"/>
-      <c r="AT34" s="78"/>
-      <c r="AU34" s="78"/>
-      <c r="AV34" s="78"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="78"/>
-      <c r="AY34" s="79"/>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="53"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="54"/>
       <c r="AZ34" s="40"/>
       <c r="BA34" s="38"/>
       <c r="BB34" s="38"/>
@@ -5083,7 +5121,7 @@
       <c r="CK34" s="38"/>
       <c r="CL34" s="38"/>
       <c r="CM34" s="39"/>
-      <c r="CN34" s="49"/>
+      <c r="CN34" s="62"/>
     </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -5129,14 +5167,14 @@
       <c r="AO35" s="38"/>
       <c r="AP35" s="38"/>
       <c r="AQ35" s="39"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="78"/>
-      <c r="AT35" s="78"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="78"/>
-      <c r="AY35" s="79"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="53"/>
+      <c r="AT35" s="53"/>
+      <c r="AU35" s="53"/>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="54"/>
       <c r="AZ35" s="40"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="38"/>
@@ -5177,7 +5215,7 @@
       <c r="CK35" s="38"/>
       <c r="CL35" s="38"/>
       <c r="CM35" s="39"/>
-      <c r="CN35" s="49"/>
+      <c r="CN35" s="62"/>
     </row>
     <row r="36" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -5223,14 +5261,14 @@
       <c r="AO36" s="38"/>
       <c r="AP36" s="38"/>
       <c r="AQ36" s="39"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="78"/>
-      <c r="AT36" s="78"/>
-      <c r="AU36" s="78"/>
-      <c r="AV36" s="78"/>
-      <c r="AW36" s="78"/>
-      <c r="AX36" s="78"/>
-      <c r="AY36" s="79"/>
+      <c r="AR36" s="52"/>
+      <c r="AS36" s="53"/>
+      <c r="AT36" s="53"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="54"/>
       <c r="AZ36" s="40"/>
       <c r="BA36" s="38"/>
       <c r="BB36" s="38"/>
@@ -5271,7 +5309,7 @@
       <c r="CK36" s="38"/>
       <c r="CL36" s="38"/>
       <c r="CM36" s="39"/>
-      <c r="CN36" s="49"/>
+      <c r="CN36" s="62"/>
     </row>
     <row r="37" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
@@ -5317,14 +5355,14 @@
       <c r="AO37" s="38"/>
       <c r="AP37" s="38"/>
       <c r="AQ37" s="39"/>
-      <c r="AR37" s="77"/>
-      <c r="AS37" s="78"/>
-      <c r="AT37" s="78"/>
-      <c r="AU37" s="78"/>
-      <c r="AV37" s="78"/>
-      <c r="AW37" s="78"/>
-      <c r="AX37" s="78"/>
-      <c r="AY37" s="79"/>
+      <c r="AR37" s="52"/>
+      <c r="AS37" s="53"/>
+      <c r="AT37" s="53"/>
+      <c r="AU37" s="53"/>
+      <c r="AV37" s="53"/>
+      <c r="AW37" s="53"/>
+      <c r="AX37" s="53"/>
+      <c r="AY37" s="54"/>
       <c r="AZ37" s="40"/>
       <c r="BA37" s="38"/>
       <c r="BB37" s="38"/>
@@ -5365,7 +5403,7 @@
       <c r="CK37" s="38"/>
       <c r="CL37" s="38"/>
       <c r="CM37" s="39"/>
-      <c r="CN37" s="49"/>
+      <c r="CN37" s="62"/>
     </row>
     <row r="38" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -5411,14 +5449,14 @@
       <c r="AO38" s="46"/>
       <c r="AP38" s="46"/>
       <c r="AQ38" s="47"/>
-      <c r="AR38" s="80"/>
-      <c r="AS38" s="81"/>
-      <c r="AT38" s="81"/>
-      <c r="AU38" s="81"/>
-      <c r="AV38" s="81"/>
-      <c r="AW38" s="81"/>
-      <c r="AX38" s="81"/>
-      <c r="AY38" s="82"/>
+      <c r="AR38" s="55"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="57"/>
       <c r="AZ38" s="45"/>
       <c r="BA38" s="46"/>
       <c r="BB38" s="46"/>
@@ -5459,126 +5497,105 @@
       <c r="CK38" s="46"/>
       <c r="CL38" s="46"/>
       <c r="CM38" s="47"/>
-      <c r="CN38" s="49"/>
+      <c r="CN38" s="62"/>
     </row>
     <row r="39" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="53"/>
-      <c r="AQ39" s="53"/>
-      <c r="AR39" s="53"/>
-      <c r="AS39" s="53"/>
-      <c r="AT39" s="53"/>
-      <c r="AU39" s="53"/>
-      <c r="AV39" s="53"/>
-      <c r="AW39" s="53"/>
-      <c r="AX39" s="53"/>
-      <c r="AY39" s="53"/>
-      <c r="AZ39" s="53"/>
-      <c r="BA39" s="53"/>
-      <c r="BB39" s="53"/>
-      <c r="BC39" s="53"/>
-      <c r="BD39" s="53"/>
-      <c r="BE39" s="53"/>
-      <c r="BF39" s="53"/>
-      <c r="BG39" s="53"/>
-      <c r="BH39" s="53"/>
-      <c r="BI39" s="53"/>
-      <c r="BJ39" s="53"/>
-      <c r="BK39" s="53"/>
-      <c r="BL39" s="53"/>
-      <c r="BM39" s="53"/>
-      <c r="BN39" s="53"/>
-      <c r="BO39" s="53"/>
-      <c r="BP39" s="53"/>
-      <c r="BQ39" s="53"/>
-      <c r="BR39" s="53"/>
-      <c r="BS39" s="53"/>
-      <c r="BT39" s="53"/>
-      <c r="BU39" s="53"/>
-      <c r="BV39" s="53"/>
-      <c r="BW39" s="53"/>
-      <c r="BX39" s="53"/>
-      <c r="BY39" s="53"/>
-      <c r="BZ39" s="53"/>
-      <c r="CA39" s="53"/>
-      <c r="CB39" s="53"/>
-      <c r="CC39" s="53"/>
-      <c r="CD39" s="53"/>
-      <c r="CE39" s="53"/>
-      <c r="CF39" s="53"/>
-      <c r="CG39" s="53"/>
-      <c r="CH39" s="53"/>
-      <c r="CI39" s="53"/>
-      <c r="CJ39" s="53"/>
-      <c r="CK39" s="53"/>
-      <c r="CL39" s="53"/>
-      <c r="CM39" s="53"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="66"/>
+      <c r="BB39" s="66"/>
+      <c r="BC39" s="66"/>
+      <c r="BD39" s="66"/>
+      <c r="BE39" s="66"/>
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="66"/>
+      <c r="BI39" s="66"/>
+      <c r="BJ39" s="66"/>
+      <c r="BK39" s="66"/>
+      <c r="BL39" s="66"/>
+      <c r="BM39" s="66"/>
+      <c r="BN39" s="66"/>
+      <c r="BO39" s="66"/>
+      <c r="BP39" s="66"/>
+      <c r="BQ39" s="66"/>
+      <c r="BR39" s="66"/>
+      <c r="BS39" s="66"/>
+      <c r="BT39" s="66"/>
+      <c r="BU39" s="66"/>
+      <c r="BV39" s="66"/>
+      <c r="BW39" s="66"/>
+      <c r="BX39" s="66"/>
+      <c r="BY39" s="66"/>
+      <c r="BZ39" s="66"/>
+      <c r="CA39" s="66"/>
+      <c r="CB39" s="66"/>
+      <c r="CC39" s="66"/>
+      <c r="CD39" s="66"/>
+      <c r="CE39" s="66"/>
+      <c r="CF39" s="66"/>
+      <c r="CG39" s="66"/>
+      <c r="CH39" s="66"/>
+      <c r="CI39" s="66"/>
+      <c r="CJ39" s="66"/>
+      <c r="CK39" s="66"/>
+      <c r="CL39" s="66"/>
+      <c r="CM39" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AR6:AY38"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
     <mergeCell ref="CN4:CN38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -5595,6 +5612,27 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR6:AY38"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="CB4:CE4"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:B20 B13:B15 B22:B25 B27:B31 B33:B38 B7:B11">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Terminé">

--- a/00 - Documents/2_PASCHE_Planning_2023.xlsx
+++ b/00 - Documents/2_PASCHE_Planning_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPI\futnetsinglemaster\00 - Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E6D74-F01D-471E-9C06-EA9ED372A7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FA13F-4A76-6A4A-8ADB-588E8A221AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
   <si>
     <t>Tâches</t>
   </si>
@@ -965,48 +965,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1015,42 +1007,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1065,6 +1021,50 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,8 +1127,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1145,8 +1145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3887820" y="662609"/>
-          <a:ext cx="6043028" cy="6584415"/>
+          <a:off x="4448277" y="662609"/>
+          <a:ext cx="9819897" cy="6222741"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1558,225 +1558,225 @@
   <dimension ref="A1:CN39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="R11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="AQ22" sqref="AQ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="2" customWidth="1"/>
-    <col min="4" max="91" width="2.140625" style="1" customWidth="1"/>
-    <col min="92" max="92" width="3.140625" style="2" customWidth="1"/>
-    <col min="93" max="305" width="9.140625" style="2" customWidth="1"/>
-    <col min="306" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="46.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="4" max="91" width="2.1640625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="3.1640625" style="2" customWidth="1"/>
+    <col min="93" max="305" width="9.1640625" style="2" customWidth="1"/>
+    <col min="306" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:92" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="51">
         <v>145341</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="69"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69" t="s">
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CJ2" s="69"/>
-      <c r="CK2" s="69"/>
-      <c r="CL2" s="69"/>
-      <c r="CM2" s="69"/>
+      <c r="CG2" s="56"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="56"/>
     </row>
-    <row r="3" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="70"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="70"/>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="70"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="70"/>
-      <c r="BQ3" s="70"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="70"/>
-      <c r="BT3" s="70"/>
-      <c r="BU3" s="70"/>
-      <c r="BV3" s="70"/>
-      <c r="BW3" s="70"/>
-      <c r="BX3" s="70"/>
-      <c r="BY3" s="70"/>
-      <c r="BZ3" s="70"/>
-      <c r="CA3" s="70"/>
-      <c r="CB3" s="70"/>
-      <c r="CC3" s="70"/>
-      <c r="CD3" s="70"/>
-      <c r="CE3" s="70"/>
-      <c r="CF3" s="70"/>
-      <c r="CG3" s="70"/>
-      <c r="CH3" s="70"/>
-      <c r="CI3" s="70"/>
-      <c r="CJ3" s="70"/>
-      <c r="CK3" s="70"/>
-      <c r="CL3" s="70"/>
-      <c r="CM3" s="70"/>
+    <row r="3" spans="1:92" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="57"/>
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="57"/>
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="57"/>
     </row>
-    <row r="4" spans="1:92" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:92" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1785,144 +1785,144 @@
       <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="58">
         <v>45068</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="58" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60">
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="58">
         <v>45069</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="58" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="60">
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="58">
         <v>45070</v>
       </c>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="58" t="s">
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="60">
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="58">
         <v>45071</v>
       </c>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="58" t="s">
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="60">
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="58">
         <v>45072</v>
       </c>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="58" t="s">
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="60">
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="58">
         <v>45075</v>
       </c>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="58" t="s">
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="60">
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="58">
         <v>45076</v>
       </c>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="58" t="s">
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="60">
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="58">
         <v>45077</v>
       </c>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="58" t="s">
+      <c r="BM4" s="58"/>
+      <c r="BN4" s="58"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="60">
+      <c r="BQ4" s="73"/>
+      <c r="BR4" s="73"/>
+      <c r="BS4" s="73"/>
+      <c r="BT4" s="58">
         <v>45078</v>
       </c>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="61"/>
-      <c r="BX4" s="58" t="s">
+      <c r="BU4" s="58"/>
+      <c r="BV4" s="58"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="60">
+      <c r="BY4" s="73"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CB4" s="58">
         <v>45079</v>
       </c>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="61"/>
-      <c r="CF4" s="58" t="s">
+      <c r="CC4" s="58"/>
+      <c r="CD4" s="58"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="60">
+      <c r="CG4" s="73"/>
+      <c r="CH4" s="73"/>
+      <c r="CI4" s="73"/>
+      <c r="CJ4" s="58">
         <v>45082</v>
       </c>
-      <c r="CK4" s="60"/>
-      <c r="CL4" s="60"/>
-      <c r="CM4" s="61"/>
-      <c r="CN4" s="62" t="s">
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="58"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:92" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2193,13 +2193,13 @@
       <c r="CM5" s="5">
         <v>8</v>
       </c>
-      <c r="CN5" s="62"/>
+      <c r="CN5" s="49"/>
     </row>
-    <row r="6" spans="1:92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:92" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2241,16 +2241,16 @@
       <c r="AO6" s="36"/>
       <c r="AP6" s="36"/>
       <c r="AQ6" s="37"/>
-      <c r="AR6" s="49" t="s">
+      <c r="AR6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="51"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="76"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
       <c r="BB6" s="36"/>
@@ -2291,9 +2291,9 @@
       <c r="CK6" s="36"/>
       <c r="CL6" s="36"/>
       <c r="CM6" s="37"/>
-      <c r="CN6" s="62"/>
+      <c r="CN6" s="49"/>
     </row>
-    <row r="7" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>40</v>
       </c>
@@ -2343,14 +2343,14 @@
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
       <c r="AQ7" s="39"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="54"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="79"/>
       <c r="AZ7" s="40"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
@@ -2391,9 +2391,9 @@
       <c r="CK7" s="38"/>
       <c r="CL7" s="38"/>
       <c r="CM7" s="39"/>
-      <c r="CN7" s="62"/>
+      <c r="CN7" s="49"/>
     </row>
-    <row r="8" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -2443,14 +2443,14 @@
       <c r="AO8" s="38"/>
       <c r="AP8" s="38"/>
       <c r="AQ8" s="39"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="54"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="79"/>
       <c r="AZ8" s="40"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
@@ -2491,9 +2491,9 @@
       <c r="CK8" s="38"/>
       <c r="CL8" s="38"/>
       <c r="CM8" s="39"/>
-      <c r="CN8" s="62"/>
+      <c r="CN8" s="49"/>
     </row>
-    <row r="9" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
@@ -2551,14 +2551,14 @@
       <c r="AO9" s="38"/>
       <c r="AP9" s="38"/>
       <c r="AQ9" s="39"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="54"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="79"/>
       <c r="AZ9" s="40"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
@@ -2599,9 +2599,9 @@
       <c r="CK9" s="38"/>
       <c r="CL9" s="38"/>
       <c r="CM9" s="39"/>
-      <c r="CN9" s="62"/>
+      <c r="CN9" s="49"/>
     </row>
-    <row r="10" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
@@ -2655,14 +2655,14 @@
       <c r="AO10" s="38"/>
       <c r="AP10" s="38"/>
       <c r="AQ10" s="39"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="54"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="79"/>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
@@ -2703,9 +2703,9 @@
       <c r="CK10" s="38"/>
       <c r="CL10" s="38"/>
       <c r="CM10" s="39"/>
-      <c r="CN10" s="62"/>
+      <c r="CN10" s="49"/>
     </row>
-    <row r="11" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>47</v>
       </c>
@@ -2757,14 +2757,14 @@
       <c r="AO11" s="38"/>
       <c r="AP11" s="38"/>
       <c r="AQ11" s="39"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="54"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="79"/>
       <c r="AZ11" s="40"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
@@ -2805,13 +2805,13 @@
       <c r="CK11" s="38"/>
       <c r="CL11" s="38"/>
       <c r="CM11" s="39"/>
-      <c r="CN11" s="62"/>
+      <c r="CN11" s="49"/>
     </row>
-    <row r="12" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:92" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="8"/>
       <c r="D12" s="40"/>
       <c r="E12" s="38"/>
@@ -2853,14 +2853,14 @@
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
       <c r="AQ12" s="39"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="54"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="79"/>
       <c r="AZ12" s="40"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
@@ -2901,9 +2901,9 @@
       <c r="CK12" s="38"/>
       <c r="CL12" s="38"/>
       <c r="CM12" s="39"/>
-      <c r="CN12" s="62"/>
+      <c r="CN12" s="49"/>
     </row>
-    <row r="13" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
@@ -2953,14 +2953,14 @@
       <c r="AO13" s="38"/>
       <c r="AP13" s="38"/>
       <c r="AQ13" s="39"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="54"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="79"/>
       <c r="AZ13" s="40"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
@@ -3001,9 +3001,9 @@
       <c r="CK13" s="38"/>
       <c r="CL13" s="38"/>
       <c r="CM13" s="39"/>
-      <c r="CN13" s="62"/>
+      <c r="CN13" s="49"/>
     </row>
-    <row r="14" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
@@ -3057,14 +3057,14 @@
       <c r="AO14" s="38"/>
       <c r="AP14" s="38"/>
       <c r="AQ14" s="39"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="54"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="79"/>
       <c r="AZ14" s="40"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
@@ -3105,9 +3105,9 @@
       <c r="CK14" s="38"/>
       <c r="CL14" s="38"/>
       <c r="CM14" s="39"/>
-      <c r="CN14" s="62"/>
+      <c r="CN14" s="49"/>
     </row>
-    <row r="15" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
@@ -3161,14 +3161,14 @@
       <c r="AO15" s="38"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="39"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="53"/>
-      <c r="AU15" s="53"/>
-      <c r="AV15" s="53"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="54"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="79"/>
       <c r="AZ15" s="40"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
@@ -3209,13 +3209,13 @@
       <c r="CK15" s="38"/>
       <c r="CL15" s="38"/>
       <c r="CM15" s="39"/>
-      <c r="CN15" s="62"/>
+      <c r="CN15" s="49"/>
     </row>
-    <row r="16" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:92" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="8"/>
       <c r="D16" s="40"/>
       <c r="E16" s="38"/>
@@ -3257,14 +3257,14 @@
       <c r="AO16" s="38"/>
       <c r="AP16" s="38"/>
       <c r="AQ16" s="39"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="54"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="79"/>
       <c r="AZ16" s="40"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
@@ -3305,9 +3305,9 @@
       <c r="CK16" s="38"/>
       <c r="CL16" s="38"/>
       <c r="CM16" s="39"/>
-      <c r="CN16" s="62"/>
+      <c r="CN16" s="49"/>
     </row>
-    <row r="17" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
@@ -3357,14 +3357,14 @@
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="39"/>
-      <c r="AR17" s="52"/>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53"/>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="54"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="79"/>
       <c r="AZ17" s="40"/>
       <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
@@ -3405,9 +3405,9 @@
       <c r="CK17" s="38"/>
       <c r="CL17" s="38"/>
       <c r="CM17" s="39"/>
-      <c r="CN17" s="62"/>
+      <c r="CN17" s="49"/>
     </row>
-    <row r="18" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
@@ -3495,18 +3495,26 @@
       <c r="AQ18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="53"/>
-      <c r="AT18" s="53"/>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="79"/>
+      <c r="AZ18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC18" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="BD18" s="38"/>
       <c r="BE18" s="38"/>
       <c r="BF18" s="38"/>
@@ -3543,14 +3551,14 @@
       <c r="CK18" s="38"/>
       <c r="CL18" s="38"/>
       <c r="CM18" s="39"/>
-      <c r="CN18" s="62"/>
+      <c r="CN18" s="49"/>
     </row>
-    <row r="19" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="40"/>
@@ -3593,24 +3601,36 @@
       <c r="AO19" s="38"/>
       <c r="AP19" s="38"/>
       <c r="AQ19" s="39"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53"/>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="54"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="79"/>
       <c r="AZ19" s="40"/>
       <c r="BA19" s="38"/>
       <c r="BB19" s="38"/>
       <c r="BC19" s="38"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
+      <c r="BD19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI19" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="BJ19" s="31"/>
       <c r="BK19" s="31"/>
       <c r="BL19" s="31"/>
@@ -3641,9 +3661,9 @@
       <c r="CK19" s="38"/>
       <c r="CL19" s="38"/>
       <c r="CM19" s="39"/>
-      <c r="CN19" s="62"/>
+      <c r="CN19" s="49"/>
     </row>
-    <row r="20" spans="1:92" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
         <v>27</v>
       </c>
@@ -3691,14 +3711,14 @@
       <c r="AO20" s="43"/>
       <c r="AP20" s="43"/>
       <c r="AQ20" s="44"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="54"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="79"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="43"/>
       <c r="BB20" s="43"/>
@@ -3739,13 +3759,13 @@
       <c r="CK20" s="43"/>
       <c r="CL20" s="43"/>
       <c r="CM20" s="44"/>
-      <c r="CN20" s="62"/>
+      <c r="CN20" s="49"/>
     </row>
-    <row r="21" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:92" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="8"/>
       <c r="D21" s="40"/>
       <c r="E21" s="38"/>
@@ -3787,14 +3807,14 @@
       <c r="AO21" s="38"/>
       <c r="AP21" s="38"/>
       <c r="AQ21" s="39"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="54"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="79"/>
       <c r="AZ21" s="40"/>
       <c r="BA21" s="38"/>
       <c r="BB21" s="38"/>
@@ -3835,9 +3855,9 @@
       <c r="CK21" s="38"/>
       <c r="CL21" s="38"/>
       <c r="CM21" s="39"/>
-      <c r="CN21" s="62"/>
+      <c r="CN21" s="49"/>
     </row>
-    <row r="22" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
         <v>29</v>
       </c>
@@ -3885,14 +3905,14 @@
       <c r="AO22" s="38"/>
       <c r="AP22" s="38"/>
       <c r="AQ22" s="39"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="54"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="79"/>
       <c r="AZ22" s="40"/>
       <c r="BA22" s="38"/>
       <c r="BB22" s="38"/>
@@ -3933,9 +3953,9 @@
       <c r="CK22" s="38"/>
       <c r="CL22" s="38"/>
       <c r="CM22" s="39"/>
-      <c r="CN22" s="62"/>
+      <c r="CN22" s="49"/>
     </row>
-    <row r="23" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
         <v>30</v>
       </c>
@@ -3982,15 +4002,15 @@
       <c r="AN23" s="38"/>
       <c r="AO23" s="38"/>
       <c r="AP23" s="38"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="54"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="78"/>
+      <c r="AY23" s="79"/>
       <c r="AZ23" s="40"/>
       <c r="BA23" s="38"/>
       <c r="BB23" s="38"/>
@@ -4031,9 +4051,9 @@
       <c r="CK23" s="38"/>
       <c r="CL23" s="38"/>
       <c r="CM23" s="39"/>
-      <c r="CN23" s="62"/>
+      <c r="CN23" s="49"/>
     </row>
-    <row r="24" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
@@ -4081,18 +4101,18 @@
       <c r="AO24" s="38"/>
       <c r="AP24" s="38"/>
       <c r="AQ24" s="39"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="54"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="78"/>
+      <c r="AY24" s="79"/>
       <c r="AZ24" s="40"/>
       <c r="BA24" s="38"/>
       <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
+      <c r="BC24" s="32"/>
       <c r="BD24" s="38"/>
       <c r="BE24" s="38"/>
       <c r="BF24" s="38"/>
@@ -4104,7 +4124,7 @@
       <c r="BL24" s="38"/>
       <c r="BM24" s="38"/>
       <c r="BN24" s="38"/>
-      <c r="BO24" s="39"/>
+      <c r="BO24" s="32"/>
       <c r="BP24" s="40"/>
       <c r="BQ24" s="38"/>
       <c r="BR24" s="38"/>
@@ -4129,9 +4149,9 @@
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
       <c r="CM24" s="39"/>
-      <c r="CN24" s="62"/>
+      <c r="CN24" s="49"/>
     </row>
-    <row r="25" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>32</v>
       </c>
@@ -4179,14 +4199,14 @@
       <c r="AO25" s="38"/>
       <c r="AP25" s="38"/>
       <c r="AQ25" s="39"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="54"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="78"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="79"/>
       <c r="AZ25" s="40"/>
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
@@ -4227,13 +4247,13 @@
       <c r="CK25" s="38"/>
       <c r="CL25" s="38"/>
       <c r="CM25" s="39"/>
-      <c r="CN25" s="62"/>
+      <c r="CN25" s="49"/>
     </row>
-    <row r="26" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:92" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="8"/>
       <c r="D26" s="40"/>
       <c r="E26" s="38"/>
@@ -4275,14 +4295,14 @@
       <c r="AO26" s="38"/>
       <c r="AP26" s="38"/>
       <c r="AQ26" s="39"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="54"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="79"/>
       <c r="AZ26" s="40"/>
       <c r="BA26" s="38"/>
       <c r="BB26" s="38"/>
@@ -4323,9 +4343,9 @@
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="39"/>
-      <c r="CN26" s="62"/>
+      <c r="CN26" s="49"/>
     </row>
-    <row r="27" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
         <v>34</v>
       </c>
@@ -4383,14 +4403,14 @@
       <c r="AO27" s="38"/>
       <c r="AP27" s="38"/>
       <c r="AQ27" s="39"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="53"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="54"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="79"/>
       <c r="AZ27" s="40"/>
       <c r="BA27" s="38"/>
       <c r="BB27" s="38"/>
@@ -4431,9 +4451,9 @@
       <c r="CK27" s="38"/>
       <c r="CL27" s="38"/>
       <c r="CM27" s="39"/>
-      <c r="CN27" s="62"/>
+      <c r="CN27" s="49"/>
     </row>
-    <row r="28" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="25" t="s">
         <v>35</v>
       </c>
@@ -4483,14 +4503,14 @@
       <c r="AO28" s="38"/>
       <c r="AP28" s="38"/>
       <c r="AQ28" s="39"/>
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="54"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="79"/>
       <c r="AZ28" s="40"/>
       <c r="BA28" s="38"/>
       <c r="BB28" s="38"/>
@@ -4531,9 +4551,9 @@
       <c r="CK28" s="38"/>
       <c r="CL28" s="38"/>
       <c r="CM28" s="39"/>
-      <c r="CN28" s="62"/>
+      <c r="CN28" s="49"/>
     </row>
-    <row r="29" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="25" t="s">
         <v>36</v>
       </c>
@@ -4587,22 +4607,26 @@
       <c r="AQ29" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AR29" s="52"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="54"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="78"/>
+      <c r="AY29" s="79"/>
       <c r="AZ29" s="40"/>
       <c r="BA29" s="38"/>
       <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
+      <c r="BC29" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="BD29" s="38"/>
       <c r="BE29" s="38"/>
       <c r="BF29" s="38"/>
-      <c r="BG29" s="33"/>
+      <c r="BG29" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="BH29" s="40"/>
       <c r="BI29" s="38"/>
       <c r="BJ29" s="38"/>
@@ -4635,9 +4659,9 @@
       <c r="CK29" s="38"/>
       <c r="CL29" s="38"/>
       <c r="CM29" s="39"/>
-      <c r="CN29" s="62"/>
+      <c r="CN29" s="49"/>
     </row>
-    <row r="30" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
         <v>37</v>
       </c>
@@ -4685,14 +4709,14 @@
       <c r="AO30" s="38"/>
       <c r="AP30" s="38"/>
       <c r="AQ30" s="39"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="53"/>
-      <c r="AV30" s="53"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="54"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="79"/>
       <c r="AZ30" s="40"/>
       <c r="BA30" s="38"/>
       <c r="BB30" s="38"/>
@@ -4733,9 +4757,9 @@
       <c r="CK30" s="38"/>
       <c r="CL30" s="38"/>
       <c r="CM30" s="39"/>
-      <c r="CN30" s="62"/>
+      <c r="CN30" s="49"/>
     </row>
-    <row r="31" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
         <v>38</v>
       </c>
@@ -4783,14 +4807,14 @@
       <c r="AO31" s="38"/>
       <c r="AP31" s="38"/>
       <c r="AQ31" s="39"/>
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="54"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="78"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="78"/>
+      <c r="AW31" s="78"/>
+      <c r="AX31" s="78"/>
+      <c r="AY31" s="79"/>
       <c r="AZ31" s="40"/>
       <c r="BA31" s="38"/>
       <c r="BB31" s="38"/>
@@ -4831,13 +4855,13 @@
       <c r="CK31" s="38"/>
       <c r="CL31" s="38"/>
       <c r="CM31" s="39"/>
-      <c r="CN31" s="62"/>
+      <c r="CN31" s="49"/>
     </row>
-    <row r="32" spans="1:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+    <row r="32" spans="1:92" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="8"/>
       <c r="D32" s="40"/>
       <c r="E32" s="38"/>
@@ -4879,14 +4903,14 @@
       <c r="AO32" s="38"/>
       <c r="AP32" s="38"/>
       <c r="AQ32" s="39"/>
-      <c r="AR32" s="52"/>
-      <c r="AS32" s="53"/>
-      <c r="AT32" s="53"/>
-      <c r="AU32" s="53"/>
-      <c r="AV32" s="53"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="54"/>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="78"/>
+      <c r="AY32" s="79"/>
       <c r="AZ32" s="40"/>
       <c r="BA32" s="38"/>
       <c r="BB32" s="38"/>
@@ -4927,9 +4951,9 @@
       <c r="CK32" s="38"/>
       <c r="CL32" s="38"/>
       <c r="CM32" s="39"/>
-      <c r="CN32" s="62"/>
+      <c r="CN32" s="49"/>
     </row>
-    <row r="33" spans="1:92" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>43</v>
       </c>
@@ -4979,14 +5003,14 @@
       <c r="AO33" s="38"/>
       <c r="AP33" s="38"/>
       <c r="AQ33" s="39"/>
-      <c r="AR33" s="52"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="54"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="78"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="79"/>
       <c r="AZ33" s="40"/>
       <c r="BA33" s="38"/>
       <c r="BB33" s="38"/>
@@ -4997,7 +5021,9 @@
       <c r="BG33" s="39"/>
       <c r="BH33" s="40"/>
       <c r="BI33" s="38"/>
-      <c r="BJ33" s="34"/>
+      <c r="BJ33" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="BK33" s="38"/>
       <c r="BL33" s="38"/>
       <c r="BM33" s="38"/>
@@ -5027,9 +5053,9 @@
       <c r="CK33" s="38"/>
       <c r="CL33" s="38"/>
       <c r="CM33" s="39"/>
-      <c r="CN33" s="62"/>
+      <c r="CN33" s="49"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="11"/>
       <c r="C34" s="8"/>
@@ -5073,14 +5099,14 @@
       <c r="AO34" s="38"/>
       <c r="AP34" s="38"/>
       <c r="AQ34" s="39"/>
-      <c r="AR34" s="52"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="54"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="78"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="78"/>
+      <c r="AY34" s="79"/>
       <c r="AZ34" s="40"/>
       <c r="BA34" s="38"/>
       <c r="BB34" s="38"/>
@@ -5121,9 +5147,9 @@
       <c r="CK34" s="38"/>
       <c r="CL34" s="38"/>
       <c r="CM34" s="39"/>
-      <c r="CN34" s="62"/>
+      <c r="CN34" s="49"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="11"/>
       <c r="C35" s="8"/>
@@ -5167,14 +5193,14 @@
       <c r="AO35" s="38"/>
       <c r="AP35" s="38"/>
       <c r="AQ35" s="39"/>
-      <c r="AR35" s="52"/>
-      <c r="AS35" s="53"/>
-      <c r="AT35" s="53"/>
-      <c r="AU35" s="53"/>
-      <c r="AV35" s="53"/>
-      <c r="AW35" s="53"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="54"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="78"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="79"/>
       <c r="AZ35" s="40"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="38"/>
@@ -5215,9 +5241,9 @@
       <c r="CK35" s="38"/>
       <c r="CL35" s="38"/>
       <c r="CM35" s="39"/>
-      <c r="CN35" s="62"/>
+      <c r="CN35" s="49"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="11"/>
       <c r="C36" s="8"/>
@@ -5261,14 +5287,14 @@
       <c r="AO36" s="38"/>
       <c r="AP36" s="38"/>
       <c r="AQ36" s="39"/>
-      <c r="AR36" s="52"/>
-      <c r="AS36" s="53"/>
-      <c r="AT36" s="53"/>
-      <c r="AU36" s="53"/>
-      <c r="AV36" s="53"/>
-      <c r="AW36" s="53"/>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="54"/>
+      <c r="AR36" s="77"/>
+      <c r="AS36" s="78"/>
+      <c r="AT36" s="78"/>
+      <c r="AU36" s="78"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
+      <c r="AX36" s="78"/>
+      <c r="AY36" s="79"/>
       <c r="AZ36" s="40"/>
       <c r="BA36" s="38"/>
       <c r="BB36" s="38"/>
@@ -5309,9 +5335,9 @@
       <c r="CK36" s="38"/>
       <c r="CL36" s="38"/>
       <c r="CM36" s="39"/>
-      <c r="CN36" s="62"/>
+      <c r="CN36" s="49"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
@@ -5355,14 +5381,14 @@
       <c r="AO37" s="38"/>
       <c r="AP37" s="38"/>
       <c r="AQ37" s="39"/>
-      <c r="AR37" s="52"/>
-      <c r="AS37" s="53"/>
-      <c r="AT37" s="53"/>
-      <c r="AU37" s="53"/>
-      <c r="AV37" s="53"/>
-      <c r="AW37" s="53"/>
-      <c r="AX37" s="53"/>
-      <c r="AY37" s="54"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="78"/>
+      <c r="AT37" s="78"/>
+      <c r="AU37" s="78"/>
+      <c r="AV37" s="78"/>
+      <c r="AW37" s="78"/>
+      <c r="AX37" s="78"/>
+      <c r="AY37" s="79"/>
       <c r="AZ37" s="40"/>
       <c r="BA37" s="38"/>
       <c r="BB37" s="38"/>
@@ -5403,9 +5429,9 @@
       <c r="CK37" s="38"/>
       <c r="CL37" s="38"/>
       <c r="CM37" s="39"/>
-      <c r="CN37" s="62"/>
+      <c r="CN37" s="49"/>
     </row>
-    <row r="38" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:92" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="10"/>
@@ -5449,14 +5475,14 @@
       <c r="AO38" s="46"/>
       <c r="AP38" s="46"/>
       <c r="AQ38" s="47"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="56"/>
-      <c r="AV38" s="56"/>
-      <c r="AW38" s="56"/>
-      <c r="AX38" s="56"/>
-      <c r="AY38" s="57"/>
+      <c r="AR38" s="80"/>
+      <c r="AS38" s="81"/>
+      <c r="AT38" s="81"/>
+      <c r="AU38" s="81"/>
+      <c r="AV38" s="81"/>
+      <c r="AW38" s="81"/>
+      <c r="AX38" s="81"/>
+      <c r="AY38" s="82"/>
       <c r="AZ38" s="45"/>
       <c r="BA38" s="46"/>
       <c r="BB38" s="46"/>
@@ -5497,105 +5523,126 @@
       <c r="CK38" s="46"/>
       <c r="CL38" s="46"/>
       <c r="CM38" s="47"/>
-      <c r="CN38" s="62"/>
+      <c r="CN38" s="49"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A39" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="66"/>
-      <c r="AZ39" s="66"/>
-      <c r="BA39" s="66"/>
-      <c r="BB39" s="66"/>
-      <c r="BC39" s="66"/>
-      <c r="BD39" s="66"/>
-      <c r="BE39" s="66"/>
-      <c r="BF39" s="66"/>
-      <c r="BG39" s="66"/>
-      <c r="BH39" s="66"/>
-      <c r="BI39" s="66"/>
-      <c r="BJ39" s="66"/>
-      <c r="BK39" s="66"/>
-      <c r="BL39" s="66"/>
-      <c r="BM39" s="66"/>
-      <c r="BN39" s="66"/>
-      <c r="BO39" s="66"/>
-      <c r="BP39" s="66"/>
-      <c r="BQ39" s="66"/>
-      <c r="BR39" s="66"/>
-      <c r="BS39" s="66"/>
-      <c r="BT39" s="66"/>
-      <c r="BU39" s="66"/>
-      <c r="BV39" s="66"/>
-      <c r="BW39" s="66"/>
-      <c r="BX39" s="66"/>
-      <c r="BY39" s="66"/>
-      <c r="BZ39" s="66"/>
-      <c r="CA39" s="66"/>
-      <c r="CB39" s="66"/>
-      <c r="CC39" s="66"/>
-      <c r="CD39" s="66"/>
-      <c r="CE39" s="66"/>
-      <c r="CF39" s="66"/>
-      <c r="CG39" s="66"/>
-      <c r="CH39" s="66"/>
-      <c r="CI39" s="66"/>
-      <c r="CJ39" s="66"/>
-      <c r="CK39" s="66"/>
-      <c r="CL39" s="66"/>
-      <c r="CM39" s="66"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="53"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="53"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="53"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="53"/>
+      <c r="BA39" s="53"/>
+      <c r="BB39" s="53"/>
+      <c r="BC39" s="53"/>
+      <c r="BD39" s="53"/>
+      <c r="BE39" s="53"/>
+      <c r="BF39" s="53"/>
+      <c r="BG39" s="53"/>
+      <c r="BH39" s="53"/>
+      <c r="BI39" s="53"/>
+      <c r="BJ39" s="53"/>
+      <c r="BK39" s="53"/>
+      <c r="BL39" s="53"/>
+      <c r="BM39" s="53"/>
+      <c r="BN39" s="53"/>
+      <c r="BO39" s="53"/>
+      <c r="BP39" s="53"/>
+      <c r="BQ39" s="53"/>
+      <c r="BR39" s="53"/>
+      <c r="BS39" s="53"/>
+      <c r="BT39" s="53"/>
+      <c r="BU39" s="53"/>
+      <c r="BV39" s="53"/>
+      <c r="BW39" s="53"/>
+      <c r="BX39" s="53"/>
+      <c r="BY39" s="53"/>
+      <c r="BZ39" s="53"/>
+      <c r="CA39" s="53"/>
+      <c r="CB39" s="53"/>
+      <c r="CC39" s="53"/>
+      <c r="CD39" s="53"/>
+      <c r="CE39" s="53"/>
+      <c r="CF39" s="53"/>
+      <c r="CG39" s="53"/>
+      <c r="CH39" s="53"/>
+      <c r="CI39" s="53"/>
+      <c r="CJ39" s="53"/>
+      <c r="CK39" s="53"/>
+      <c r="CL39" s="53"/>
+      <c r="CM39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AR6:AY38"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
     <mergeCell ref="CN4:CN38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -5612,27 +5659,6 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR6:AY38"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="CB4:CE4"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:B20 B13:B15 B22:B25 B27:B31 B33:B38 B7:B11">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Terminé">

--- a/00 - Documents/2_PASCHE_Planning_2023.xlsx
+++ b/00 - Documents/2_PASCHE_Planning_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FA13F-4A76-6A4A-8ADB-588E8A221AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6A7C9-7FA4-9F44-AC39-6D86963DBBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Tâches</t>
   </si>
@@ -1557,11 +1557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="R11" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BC15" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AQ22" sqref="AQ22"/>
+      <selection pane="bottomRight" activeCell="BO19" sqref="BO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3631,12 +3631,24 @@
       <c r="BI19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="31"/>
+      <c r="BJ19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO19" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="BP19" s="31"/>
       <c r="BQ19" s="31"/>
       <c r="BR19" s="31"/>
@@ -4634,7 +4646,9 @@
       <c r="BL29" s="38"/>
       <c r="BM29" s="38"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="33"/>
+      <c r="BO29" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="BP29" s="40"/>
       <c r="BQ29" s="38"/>
       <c r="BR29" s="38"/>

--- a/00 - Documents/2_PASCHE_Planning_2023.xlsx
+++ b/00 - Documents/2_PASCHE_Planning_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paschek7/TPI/futnetsinglemaster/00 - Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6A7C9-7FA4-9F44-AC39-6D86963DBBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63A7AC-1E9B-254C-A9C2-C8365A08E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
   <si>
     <t>Tâches</t>
   </si>
@@ -194,12 +194,6 @@
     <t>Terminé</t>
   </si>
   <si>
-    <t>En cours</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Maquettes</t>
   </si>
   <si>
@@ -269,7 +263,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +348,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -964,6 +964,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
@@ -1127,8 +1131,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>154878</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1145,8 +1149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4448277" y="662609"/>
-          <a:ext cx="9819897" cy="6222741"/>
+          <a:off x="4441610" y="665976"/>
+          <a:ext cx="14778756" cy="6251023"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1557,11 +1561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BC15" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BO19" sqref="BO19"/>
+      <selection pane="bottomRight" activeCell="CD26" sqref="CD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1576,207 +1580,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>145341</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="56"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="56" t="s">
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57"/>
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57"/>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57"/>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57"/>
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="57"/>
+      <c r="BV2" s="57"/>
+      <c r="BW2" s="57"/>
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="57"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57"/>
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57"/>
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57"/>
+      <c r="CF2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="56"/>
-      <c r="CH2" s="56"/>
-      <c r="CI2" s="56"/>
-      <c r="CJ2" s="56"/>
-      <c r="CK2" s="56"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="56"/>
+      <c r="CG2" s="57"/>
+      <c r="CH2" s="57"/>
+      <c r="CI2" s="57"/>
+      <c r="CJ2" s="57"/>
+      <c r="CK2" s="57"/>
+      <c r="CL2" s="57"/>
+      <c r="CM2" s="57"/>
     </row>
     <row r="3" spans="1:92" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="57"/>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="57"/>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="57"/>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="57"/>
-      <c r="CM3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="58"/>
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="58"/>
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="58"/>
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="58"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="58"/>
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="58"/>
+      <c r="CI3" s="58"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="58"/>
     </row>
     <row r="4" spans="1:92" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1785,144 +1789,144 @@
       <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="58">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="59">
         <v>45068</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="72" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="58">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="59">
         <v>45069</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="72" t="s">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="58">
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="59">
         <v>45070</v>
       </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="72" t="s">
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="58">
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="59">
         <v>45071</v>
       </c>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="72" t="s">
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="58">
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="59">
         <v>45072</v>
       </c>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="72" t="s">
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="58">
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="59">
         <v>45075</v>
       </c>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="72" t="s">
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="58">
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="59">
         <v>45076</v>
       </c>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="72" t="s">
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="58">
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="59">
         <v>45077</v>
       </c>
-      <c r="BM4" s="58"/>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="72" t="s">
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="73"/>
-      <c r="BR4" s="73"/>
-      <c r="BS4" s="73"/>
-      <c r="BT4" s="58">
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="74"/>
+      <c r="BS4" s="74"/>
+      <c r="BT4" s="59">
         <v>45078</v>
       </c>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="72" t="s">
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="73"/>
-      <c r="BZ4" s="73"/>
-      <c r="CA4" s="73"/>
-      <c r="CB4" s="58">
+      <c r="BY4" s="74"/>
+      <c r="BZ4" s="74"/>
+      <c r="CA4" s="74"/>
+      <c r="CB4" s="59">
         <v>45079</v>
       </c>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="72" t="s">
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="73"/>
-      <c r="CH4" s="73"/>
-      <c r="CI4" s="73"/>
-      <c r="CJ4" s="58">
+      <c r="CG4" s="74"/>
+      <c r="CH4" s="74"/>
+      <c r="CI4" s="74"/>
+      <c r="CJ4" s="59">
         <v>45082</v>
       </c>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="58"/>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="49" t="s">
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="59"/>
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:92" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -2193,13 +2197,13 @@
       <c r="CM5" s="5">
         <v>8</v>
       </c>
-      <c r="CN5" s="49"/>
+      <c r="CN5" s="50"/>
     </row>
     <row r="6" spans="1:92" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2241,16 +2245,16 @@
       <c r="AO6" s="36"/>
       <c r="AP6" s="36"/>
       <c r="AQ6" s="37"/>
-      <c r="AR6" s="74" t="s">
+      <c r="AR6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="76"/>
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="77"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
       <c r="BB6" s="36"/>
@@ -2291,7 +2295,7 @@
       <c r="CK6" s="36"/>
       <c r="CL6" s="36"/>
       <c r="CM6" s="37"/>
-      <c r="CN6" s="49"/>
+      <c r="CN6" s="50"/>
     </row>
     <row r="7" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
@@ -2343,14 +2347,14 @@
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
       <c r="AQ7" s="39"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="79"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="80"/>
       <c r="AZ7" s="40"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
@@ -2391,7 +2395,7 @@
       <c r="CK7" s="38"/>
       <c r="CL7" s="38"/>
       <c r="CM7" s="39"/>
-      <c r="CN7" s="49"/>
+      <c r="CN7" s="50"/>
     </row>
     <row r="8" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
@@ -2443,14 +2447,14 @@
       <c r="AO8" s="38"/>
       <c r="AP8" s="38"/>
       <c r="AQ8" s="39"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="79"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="79"/>
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="79"/>
+      <c r="AW8" s="79"/>
+      <c r="AX8" s="79"/>
+      <c r="AY8" s="80"/>
       <c r="AZ8" s="40"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
@@ -2491,7 +2495,7 @@
       <c r="CK8" s="38"/>
       <c r="CL8" s="38"/>
       <c r="CM8" s="39"/>
-      <c r="CN8" s="49"/>
+      <c r="CN8" s="50"/>
     </row>
     <row r="9" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
@@ -2551,14 +2555,14 @@
       <c r="AO9" s="38"/>
       <c r="AP9" s="38"/>
       <c r="AQ9" s="39"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="79"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="80"/>
       <c r="AZ9" s="40"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
@@ -2599,7 +2603,7 @@
       <c r="CK9" s="38"/>
       <c r="CL9" s="38"/>
       <c r="CM9" s="39"/>
-      <c r="CN9" s="49"/>
+      <c r="CN9" s="50"/>
     </row>
     <row r="10" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
@@ -2655,14 +2659,14 @@
       <c r="AO10" s="38"/>
       <c r="AP10" s="38"/>
       <c r="AQ10" s="39"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="79"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="80"/>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
@@ -2703,11 +2707,11 @@
       <c r="CK10" s="38"/>
       <c r="CL10" s="38"/>
       <c r="CM10" s="39"/>
-      <c r="CN10" s="49"/>
+      <c r="CN10" s="50"/>
     </row>
     <row r="11" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>44</v>
@@ -2757,14 +2761,14 @@
       <c r="AO11" s="38"/>
       <c r="AP11" s="38"/>
       <c r="AQ11" s="39"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="79"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="80"/>
       <c r="AZ11" s="40"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
@@ -2805,13 +2809,13 @@
       <c r="CK11" s="38"/>
       <c r="CL11" s="38"/>
       <c r="CM11" s="39"/>
-      <c r="CN11" s="49"/>
+      <c r="CN11" s="50"/>
     </row>
     <row r="12" spans="1:92" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="8"/>
       <c r="D12" s="40"/>
       <c r="E12" s="38"/>
@@ -2853,14 +2857,14 @@
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
       <c r="AQ12" s="39"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="79"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="79"/>
+      <c r="AT12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+      <c r="AY12" s="80"/>
       <c r="AZ12" s="40"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
@@ -2901,7 +2905,7 @@
       <c r="CK12" s="38"/>
       <c r="CL12" s="38"/>
       <c r="CM12" s="39"/>
-      <c r="CN12" s="49"/>
+      <c r="CN12" s="50"/>
     </row>
     <row r="13" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
@@ -2927,7 +2931,7 @@
       <c r="Q13" s="29"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T13" s="40"/>
       <c r="U13" s="38"/>
@@ -2953,14 +2957,14 @@
       <c r="AO13" s="38"/>
       <c r="AP13" s="38"/>
       <c r="AQ13" s="39"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="79"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="80"/>
       <c r="AZ13" s="40"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
@@ -3001,7 +3005,7 @@
       <c r="CK13" s="38"/>
       <c r="CL13" s="38"/>
       <c r="CM13" s="39"/>
-      <c r="CN13" s="49"/>
+      <c r="CN13" s="50"/>
     </row>
     <row r="14" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
@@ -3057,14 +3061,14 @@
       <c r="AO14" s="38"/>
       <c r="AP14" s="38"/>
       <c r="AQ14" s="39"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="79"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="79"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="80"/>
       <c r="AZ14" s="40"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
@@ -3105,7 +3109,7 @@
       <c r="CK14" s="38"/>
       <c r="CL14" s="38"/>
       <c r="CM14" s="39"/>
-      <c r="CN14" s="49"/>
+      <c r="CN14" s="50"/>
     </row>
     <row r="15" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
@@ -3161,14 +3165,14 @@
       <c r="AO15" s="38"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="39"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="79"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="80"/>
       <c r="AZ15" s="40"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
@@ -3209,13 +3213,13 @@
       <c r="CK15" s="38"/>
       <c r="CL15" s="38"/>
       <c r="CM15" s="39"/>
-      <c r="CN15" s="49"/>
+      <c r="CN15" s="50"/>
     </row>
     <row r="16" spans="1:92" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="8"/>
       <c r="D16" s="40"/>
       <c r="E16" s="38"/>
@@ -3257,14 +3261,14 @@
       <c r="AO16" s="38"/>
       <c r="AP16" s="38"/>
       <c r="AQ16" s="39"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="79"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="80"/>
       <c r="AZ16" s="40"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
@@ -3305,7 +3309,7 @@
       <c r="CK16" s="38"/>
       <c r="CL16" s="38"/>
       <c r="CM16" s="39"/>
-      <c r="CN16" s="49"/>
+      <c r="CN16" s="50"/>
     </row>
     <row r="17" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
@@ -3357,14 +3361,14 @@
       <c r="AO17" s="38"/>
       <c r="AP17" s="38"/>
       <c r="AQ17" s="39"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="79"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="79"/>
+      <c r="AT17" s="79"/>
+      <c r="AU17" s="79"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="80"/>
       <c r="AZ17" s="40"/>
       <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
@@ -3405,7 +3409,7 @@
       <c r="CK17" s="38"/>
       <c r="CL17" s="38"/>
       <c r="CM17" s="39"/>
-      <c r="CN17" s="49"/>
+      <c r="CN17" s="50"/>
     </row>
     <row r="18" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
@@ -3495,14 +3499,14 @@
       <c r="AQ18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="79"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="79"/>
+      <c r="AT18" s="79"/>
+      <c r="AU18" s="79"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+      <c r="AY18" s="80"/>
       <c r="AZ18" s="31" t="s">
         <v>41</v>
       </c>
@@ -3551,14 +3555,14 @@
       <c r="CK18" s="38"/>
       <c r="CL18" s="38"/>
       <c r="CM18" s="39"/>
-      <c r="CN18" s="49"/>
+      <c r="CN18" s="50"/>
     </row>
     <row r="19" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>45</v>
+      <c r="B19" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="40"/>
@@ -3601,14 +3605,14 @@
       <c r="AO19" s="38"/>
       <c r="AP19" s="38"/>
       <c r="AQ19" s="39"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="79"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="79"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="80"/>
       <c r="AZ19" s="40"/>
       <c r="BA19" s="38"/>
       <c r="BB19" s="38"/>
@@ -3649,16 +3653,34 @@
       <c r="BO19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="BP19" s="31"/>
-      <c r="BQ19" s="31"/>
-      <c r="BR19" s="31"/>
+      <c r="BP19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR19" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="31"/>
-      <c r="BW19" s="31"/>
-      <c r="BX19" s="36"/>
-      <c r="BY19" s="36"/>
+      <c r="BT19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BU19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY19" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="BZ19" s="36"/>
       <c r="CA19" s="36"/>
       <c r="CB19" s="36"/>
@@ -3673,14 +3695,14 @@
       <c r="CK19" s="38"/>
       <c r="CL19" s="38"/>
       <c r="CM19" s="39"/>
-      <c r="CN19" s="49"/>
+      <c r="CN19" s="50"/>
     </row>
     <row r="20" spans="1:92" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="42"/>
@@ -3723,14 +3745,14 @@
       <c r="AO20" s="43"/>
       <c r="AP20" s="43"/>
       <c r="AQ20" s="44"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="79"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="79"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="79"/>
+      <c r="AV20" s="79"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="80"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="43"/>
       <c r="BB20" s="43"/>
@@ -3753,14 +3775,30 @@
       <c r="BS20" s="43"/>
       <c r="BT20" s="31"/>
       <c r="BU20" s="31"/>
-      <c r="BV20" s="31"/>
-      <c r="BW20" s="31"/>
-      <c r="BX20" s="31"/>
-      <c r="BY20" s="31"/>
-      <c r="BZ20" s="36"/>
-      <c r="CA20" s="36"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
+      <c r="BV20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="CB20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC20" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="CD20" s="36"/>
       <c r="CE20" s="36"/>
       <c r="CF20" s="42"/>
@@ -3771,13 +3809,13 @@
       <c r="CK20" s="43"/>
       <c r="CL20" s="43"/>
       <c r="CM20" s="44"/>
-      <c r="CN20" s="49"/>
+      <c r="CN20" s="50"/>
     </row>
     <row r="21" spans="1:92" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="8"/>
       <c r="D21" s="40"/>
       <c r="E21" s="38"/>
@@ -3819,14 +3857,14 @@
       <c r="AO21" s="38"/>
       <c r="AP21" s="38"/>
       <c r="AQ21" s="39"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="79"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="80"/>
       <c r="AZ21" s="40"/>
       <c r="BA21" s="38"/>
       <c r="BB21" s="38"/>
@@ -3867,14 +3905,14 @@
       <c r="CK21" s="38"/>
       <c r="CL21" s="38"/>
       <c r="CM21" s="39"/>
-      <c r="CN21" s="49"/>
+      <c r="CN21" s="50"/>
     </row>
     <row r="22" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="40"/>
@@ -3917,14 +3955,14 @@
       <c r="AO22" s="38"/>
       <c r="AP22" s="38"/>
       <c r="AQ22" s="39"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="79"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="80"/>
       <c r="AZ22" s="40"/>
       <c r="BA22" s="38"/>
       <c r="BB22" s="38"/>
@@ -3945,7 +3983,9 @@
       <c r="BQ22" s="38"/>
       <c r="BR22" s="38"/>
       <c r="BS22" s="38"/>
-      <c r="BT22" s="38"/>
+      <c r="BT22" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="BU22" s="38"/>
       <c r="BV22" s="38"/>
       <c r="BW22" s="39"/>
@@ -3955,7 +3995,9 @@
       <c r="CA22" s="36"/>
       <c r="CB22" s="32"/>
       <c r="CC22" s="36"/>
-      <c r="CD22" s="36"/>
+      <c r="CD22" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="CE22" s="36"/>
       <c r="CF22" s="40"/>
       <c r="CG22" s="38"/>
@@ -3965,14 +4007,14 @@
       <c r="CK22" s="38"/>
       <c r="CL22" s="38"/>
       <c r="CM22" s="39"/>
-      <c r="CN22" s="49"/>
+      <c r="CN22" s="50"/>
     </row>
     <row r="23" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="40"/>
@@ -4015,14 +4057,14 @@
       <c r="AO23" s="38"/>
       <c r="AP23" s="38"/>
       <c r="AQ23" s="32"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="78"/>
-      <c r="AT23" s="78"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="78"/>
-      <c r="AY23" s="79"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="80"/>
       <c r="AZ23" s="40"/>
       <c r="BA23" s="38"/>
       <c r="BB23" s="38"/>
@@ -4043,7 +4085,9 @@
       <c r="BQ23" s="38"/>
       <c r="BR23" s="38"/>
       <c r="BS23" s="38"/>
-      <c r="BT23" s="38"/>
+      <c r="BT23" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="BU23" s="38"/>
       <c r="BV23" s="38"/>
       <c r="BW23" s="39"/>
@@ -4053,7 +4097,9 @@
       <c r="CA23" s="36"/>
       <c r="CB23" s="32"/>
       <c r="CC23" s="36"/>
-      <c r="CD23" s="36"/>
+      <c r="CD23" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="CE23" s="36"/>
       <c r="CF23" s="40"/>
       <c r="CG23" s="38"/>
@@ -4063,14 +4109,14 @@
       <c r="CK23" s="38"/>
       <c r="CL23" s="38"/>
       <c r="CM23" s="39"/>
-      <c r="CN23" s="49"/>
+      <c r="CN23" s="50"/>
     </row>
     <row r="24" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="40"/>
@@ -4113,14 +4159,14 @@
       <c r="AO24" s="38"/>
       <c r="AP24" s="38"/>
       <c r="AQ24" s="39"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="78"/>
-      <c r="AT24" s="78"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="78"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="79"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="79"/>
+      <c r="AT24" s="79"/>
+      <c r="AU24" s="79"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="80"/>
       <c r="AZ24" s="40"/>
       <c r="BA24" s="38"/>
       <c r="BB24" s="38"/>
@@ -4151,7 +4197,9 @@
       <c r="CA24" s="36"/>
       <c r="CB24" s="32"/>
       <c r="CC24" s="36"/>
-      <c r="CD24" s="36"/>
+      <c r="CD24" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="CE24" s="36"/>
       <c r="CF24" s="40"/>
       <c r="CG24" s="38"/>
@@ -4161,14 +4209,14 @@
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
       <c r="CM24" s="39"/>
-      <c r="CN24" s="49"/>
+      <c r="CN24" s="50"/>
     </row>
     <row r="25" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="40"/>
@@ -4211,14 +4259,14 @@
       <c r="AO25" s="38"/>
       <c r="AP25" s="38"/>
       <c r="AQ25" s="39"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="78"/>
-      <c r="AT25" s="78"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="79"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="79"/>
+      <c r="AT25" s="79"/>
+      <c r="AU25" s="79"/>
+      <c r="AV25" s="79"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="80"/>
       <c r="AZ25" s="40"/>
       <c r="BA25" s="38"/>
       <c r="BB25" s="38"/>
@@ -4249,7 +4297,9 @@
       <c r="CA25" s="36"/>
       <c r="CB25" s="32"/>
       <c r="CC25" s="36"/>
-      <c r="CD25" s="36"/>
+      <c r="CD25" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="CE25" s="36"/>
       <c r="CF25" s="40"/>
       <c r="CG25" s="38"/>
@@ -4259,13 +4309,13 @@
       <c r="CK25" s="38"/>
       <c r="CL25" s="38"/>
       <c r="CM25" s="39"/>
-      <c r="CN25" s="49"/>
+      <c r="CN25" s="50"/>
     </row>
     <row r="26" spans="1:92" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="8"/>
       <c r="D26" s="40"/>
       <c r="E26" s="38"/>
@@ -4307,14 +4357,14 @@
       <c r="AO26" s="38"/>
       <c r="AP26" s="38"/>
       <c r="AQ26" s="39"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="78"/>
-      <c r="AT26" s="78"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="78"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="78"/>
-      <c r="AY26" s="79"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="80"/>
       <c r="AZ26" s="40"/>
       <c r="BA26" s="38"/>
       <c r="BB26" s="38"/>
@@ -4355,7 +4405,7 @@
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="39"/>
-      <c r="CN26" s="49"/>
+      <c r="CN26" s="50"/>
     </row>
     <row r="27" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
@@ -4415,14 +4465,14 @@
       <c r="AO27" s="38"/>
       <c r="AP27" s="38"/>
       <c r="AQ27" s="39"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="79"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="80"/>
       <c r="AZ27" s="40"/>
       <c r="BA27" s="38"/>
       <c r="BB27" s="38"/>
@@ -4459,11 +4509,13 @@
       <c r="CG27" s="38"/>
       <c r="CH27" s="38"/>
       <c r="CI27" s="38"/>
-      <c r="CJ27" s="38"/>
+      <c r="CJ27" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="CK27" s="38"/>
       <c r="CL27" s="38"/>
       <c r="CM27" s="39"/>
-      <c r="CN27" s="49"/>
+      <c r="CN27" s="50"/>
     </row>
     <row r="28" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="25" t="s">
@@ -4515,14 +4567,14 @@
       <c r="AO28" s="38"/>
       <c r="AP28" s="38"/>
       <c r="AQ28" s="39"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="79"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="80"/>
       <c r="AZ28" s="40"/>
       <c r="BA28" s="38"/>
       <c r="BB28" s="38"/>
@@ -4558,19 +4610,21 @@
       <c r="CF28" s="40"/>
       <c r="CG28" s="38"/>
       <c r="CH28" s="38"/>
-      <c r="CI28" s="38"/>
+      <c r="CI28" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="CJ28" s="38"/>
       <c r="CK28" s="38"/>
       <c r="CL28" s="38"/>
       <c r="CM28" s="39"/>
-      <c r="CN28" s="49"/>
+      <c r="CN28" s="50"/>
     </row>
     <row r="29" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="40"/>
@@ -4619,14 +4673,14 @@
       <c r="AQ29" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="79"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="80"/>
       <c r="AZ29" s="40"/>
       <c r="BA29" s="38"/>
       <c r="BB29" s="38"/>
@@ -4652,7 +4706,9 @@
       <c r="BP29" s="40"/>
       <c r="BQ29" s="38"/>
       <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
+      <c r="BS29" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="BT29" s="38"/>
       <c r="BU29" s="38"/>
       <c r="BV29" s="38"/>
@@ -4667,20 +4723,28 @@
       <c r="CE29" s="36"/>
       <c r="CF29" s="40"/>
       <c r="CG29" s="38"/>
-      <c r="CH29" s="38"/>
+      <c r="CH29" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="CI29" s="38"/>
       <c r="CJ29" s="38"/>
-      <c r="CK29" s="38"/>
-      <c r="CL29" s="38"/>
-      <c r="CM29" s="39"/>
-      <c r="CN29" s="49"/>
+      <c r="CK29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="CL29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="CM29" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN29" s="50"/>
     </row>
     <row r="30" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="40"/>
@@ -4723,14 +4787,14 @@
       <c r="AO30" s="38"/>
       <c r="AP30" s="38"/>
       <c r="AQ30" s="39"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="78"/>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="79"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="80"/>
       <c r="AZ30" s="40"/>
       <c r="BA30" s="38"/>
       <c r="BB30" s="38"/>
@@ -4762,7 +4826,9 @@
       <c r="CB30" s="36"/>
       <c r="CC30" s="33"/>
       <c r="CD30" s="36"/>
-      <c r="CE30" s="36"/>
+      <c r="CE30" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="CF30" s="40"/>
       <c r="CG30" s="38"/>
       <c r="CH30" s="38"/>
@@ -4771,14 +4837,14 @@
       <c r="CK30" s="38"/>
       <c r="CL30" s="38"/>
       <c r="CM30" s="39"/>
-      <c r="CN30" s="49"/>
+      <c r="CN30" s="50"/>
     </row>
     <row r="31" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="40"/>
@@ -4821,14 +4887,14 @@
       <c r="AO31" s="38"/>
       <c r="AP31" s="38"/>
       <c r="AQ31" s="39"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="78"/>
-      <c r="AT31" s="78"/>
-      <c r="AU31" s="78"/>
-      <c r="AV31" s="78"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="78"/>
-      <c r="AY31" s="79"/>
+      <c r="AR31" s="78"/>
+      <c r="AS31" s="79"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="80"/>
       <c r="AZ31" s="40"/>
       <c r="BA31" s="38"/>
       <c r="BB31" s="38"/>
@@ -4859,23 +4925,31 @@
       <c r="CA31" s="36"/>
       <c r="CB31" s="36"/>
       <c r="CC31" s="36"/>
-      <c r="CD31" s="33"/>
-      <c r="CE31" s="33"/>
-      <c r="CF31" s="40"/>
-      <c r="CG31" s="38"/>
+      <c r="CD31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF31" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG31" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="CH31" s="38"/>
       <c r="CI31" s="38"/>
       <c r="CJ31" s="38"/>
       <c r="CK31" s="38"/>
       <c r="CL31" s="38"/>
       <c r="CM31" s="39"/>
-      <c r="CN31" s="49"/>
+      <c r="CN31" s="50"/>
     </row>
     <row r="32" spans="1:92" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="71"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="8"/>
       <c r="D32" s="40"/>
       <c r="E32" s="38"/>
@@ -4917,14 +4991,14 @@
       <c r="AO32" s="38"/>
       <c r="AP32" s="38"/>
       <c r="AQ32" s="39"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="78"/>
-      <c r="AU32" s="78"/>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="78"/>
-      <c r="AY32" s="79"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="79"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="80"/>
       <c r="AZ32" s="40"/>
       <c r="BA32" s="38"/>
       <c r="BB32" s="38"/>
@@ -4965,14 +5039,14 @@
       <c r="CK32" s="38"/>
       <c r="CL32" s="38"/>
       <c r="CM32" s="39"/>
-      <c r="CN32" s="49"/>
+      <c r="CN32" s="50"/>
     </row>
     <row r="33" spans="1:92" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="40"/>
@@ -5017,14 +5091,14 @@
       <c r="AO33" s="38"/>
       <c r="AP33" s="38"/>
       <c r="AQ33" s="39"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="78"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="78"/>
-      <c r="AY33" s="79"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="79"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="79"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="80"/>
       <c r="AZ33" s="40"/>
       <c r="BA33" s="38"/>
       <c r="BB33" s="38"/>
@@ -5067,7 +5141,7 @@
       <c r="CK33" s="38"/>
       <c r="CL33" s="38"/>
       <c r="CM33" s="39"/>
-      <c r="CN33" s="49"/>
+      <c r="CN33" s="50"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
@@ -5113,14 +5187,14 @@
       <c r="AO34" s="38"/>
       <c r="AP34" s="38"/>
       <c r="AQ34" s="39"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="78"/>
-      <c r="AT34" s="78"/>
-      <c r="AU34" s="78"/>
-      <c r="AV34" s="78"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="78"/>
-      <c r="AY34" s="79"/>
+      <c r="AR34" s="78"/>
+      <c r="AS34" s="79"/>
+      <c r="AT34" s="79"/>
+      <c r="AU34" s="79"/>
+      <c r="AV34" s="79"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="80"/>
       <c r="AZ34" s="40"/>
       <c r="BA34" s="38"/>
       <c r="BB34" s="38"/>
@@ -5161,7 +5235,7 @@
       <c r="CK34" s="38"/>
       <c r="CL34" s="38"/>
       <c r="CM34" s="39"/>
-      <c r="CN34" s="49"/>
+      <c r="CN34" s="50"/>
     </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
@@ -5207,14 +5281,14 @@
       <c r="AO35" s="38"/>
       <c r="AP35" s="38"/>
       <c r="AQ35" s="39"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="78"/>
-      <c r="AT35" s="78"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="78"/>
-      <c r="AY35" s="79"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="79"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="79"/>
+      <c r="AV35" s="79"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="80"/>
       <c r="AZ35" s="40"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="38"/>
@@ -5255,7 +5329,7 @@
       <c r="CK35" s="38"/>
       <c r="CL35" s="38"/>
       <c r="CM35" s="39"/>
-      <c r="CN35" s="49"/>
+      <c r="CN35" s="50"/>
     </row>
     <row r="36" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
@@ -5301,14 +5375,14 @@
       <c r="AO36" s="38"/>
       <c r="AP36" s="38"/>
       <c r="AQ36" s="39"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="78"/>
-      <c r="AT36" s="78"/>
-      <c r="AU36" s="78"/>
-      <c r="AV36" s="78"/>
-      <c r="AW36" s="78"/>
-      <c r="AX36" s="78"/>
-      <c r="AY36" s="79"/>
+      <c r="AR36" s="78"/>
+      <c r="AS36" s="79"/>
+      <c r="AT36" s="79"/>
+      <c r="AU36" s="79"/>
+      <c r="AV36" s="79"/>
+      <c r="AW36" s="79"/>
+      <c r="AX36" s="79"/>
+      <c r="AY36" s="80"/>
       <c r="AZ36" s="40"/>
       <c r="BA36" s="38"/>
       <c r="BB36" s="38"/>
@@ -5349,7 +5423,7 @@
       <c r="CK36" s="38"/>
       <c r="CL36" s="38"/>
       <c r="CM36" s="39"/>
-      <c r="CN36" s="49"/>
+      <c r="CN36" s="50"/>
     </row>
     <row r="37" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
@@ -5395,14 +5469,14 @@
       <c r="AO37" s="38"/>
       <c r="AP37" s="38"/>
       <c r="AQ37" s="39"/>
-      <c r="AR37" s="77"/>
-      <c r="AS37" s="78"/>
-      <c r="AT37" s="78"/>
-      <c r="AU37" s="78"/>
-      <c r="AV37" s="78"/>
-      <c r="AW37" s="78"/>
-      <c r="AX37" s="78"/>
-      <c r="AY37" s="79"/>
+      <c r="AR37" s="78"/>
+      <c r="AS37" s="79"/>
+      <c r="AT37" s="79"/>
+      <c r="AU37" s="79"/>
+      <c r="AV37" s="79"/>
+      <c r="AW37" s="79"/>
+      <c r="AX37" s="79"/>
+      <c r="AY37" s="80"/>
       <c r="AZ37" s="40"/>
       <c r="BA37" s="38"/>
       <c r="BB37" s="38"/>
@@ -5443,7 +5517,7 @@
       <c r="CK37" s="38"/>
       <c r="CL37" s="38"/>
       <c r="CM37" s="39"/>
-      <c r="CN37" s="49"/>
+      <c r="CN37" s="50"/>
     </row>
     <row r="38" spans="1:92" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
@@ -5489,14 +5563,14 @@
       <c r="AO38" s="46"/>
       <c r="AP38" s="46"/>
       <c r="AQ38" s="47"/>
-      <c r="AR38" s="80"/>
-      <c r="AS38" s="81"/>
-      <c r="AT38" s="81"/>
-      <c r="AU38" s="81"/>
-      <c r="AV38" s="81"/>
-      <c r="AW38" s="81"/>
-      <c r="AX38" s="81"/>
-      <c r="AY38" s="82"/>
+      <c r="AR38" s="81"/>
+      <c r="AS38" s="82"/>
+      <c r="AT38" s="82"/>
+      <c r="AU38" s="82"/>
+      <c r="AV38" s="82"/>
+      <c r="AW38" s="82"/>
+      <c r="AX38" s="82"/>
+      <c r="AY38" s="83"/>
       <c r="AZ38" s="45"/>
       <c r="BA38" s="46"/>
       <c r="BB38" s="46"/>
@@ -5537,102 +5611,102 @@
       <c r="CK38" s="46"/>
       <c r="CL38" s="46"/>
       <c r="CM38" s="47"/>
-      <c r="CN38" s="49"/>
+      <c r="CN38" s="50"/>
     </row>
     <row r="39" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="53"/>
-      <c r="AQ39" s="53"/>
-      <c r="AR39" s="53"/>
-      <c r="AS39" s="53"/>
-      <c r="AT39" s="53"/>
-      <c r="AU39" s="53"/>
-      <c r="AV39" s="53"/>
-      <c r="AW39" s="53"/>
-      <c r="AX39" s="53"/>
-      <c r="AY39" s="53"/>
-      <c r="AZ39" s="53"/>
-      <c r="BA39" s="53"/>
-      <c r="BB39" s="53"/>
-      <c r="BC39" s="53"/>
-      <c r="BD39" s="53"/>
-      <c r="BE39" s="53"/>
-      <c r="BF39" s="53"/>
-      <c r="BG39" s="53"/>
-      <c r="BH39" s="53"/>
-      <c r="BI39" s="53"/>
-      <c r="BJ39" s="53"/>
-      <c r="BK39" s="53"/>
-      <c r="BL39" s="53"/>
-      <c r="BM39" s="53"/>
-      <c r="BN39" s="53"/>
-      <c r="BO39" s="53"/>
-      <c r="BP39" s="53"/>
-      <c r="BQ39" s="53"/>
-      <c r="BR39" s="53"/>
-      <c r="BS39" s="53"/>
-      <c r="BT39" s="53"/>
-      <c r="BU39" s="53"/>
-      <c r="BV39" s="53"/>
-      <c r="BW39" s="53"/>
-      <c r="BX39" s="53"/>
-      <c r="BY39" s="53"/>
-      <c r="BZ39" s="53"/>
-      <c r="CA39" s="53"/>
-      <c r="CB39" s="53"/>
-      <c r="CC39" s="53"/>
-      <c r="CD39" s="53"/>
-      <c r="CE39" s="53"/>
-      <c r="CF39" s="53"/>
-      <c r="CG39" s="53"/>
-      <c r="CH39" s="53"/>
-      <c r="CI39" s="53"/>
-      <c r="CJ39" s="53"/>
-      <c r="CK39" s="53"/>
-      <c r="CL39" s="53"/>
-      <c r="CM39" s="53"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="54"/>
+      <c r="AU39" s="54"/>
+      <c r="AV39" s="54"/>
+      <c r="AW39" s="54"/>
+      <c r="AX39" s="54"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
+      <c r="BB39" s="54"/>
+      <c r="BC39" s="54"/>
+      <c r="BD39" s="54"/>
+      <c r="BE39" s="54"/>
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="54"/>
+      <c r="BH39" s="54"/>
+      <c r="BI39" s="54"/>
+      <c r="BJ39" s="54"/>
+      <c r="BK39" s="54"/>
+      <c r="BL39" s="54"/>
+      <c r="BM39" s="54"/>
+      <c r="BN39" s="54"/>
+      <c r="BO39" s="54"/>
+      <c r="BP39" s="54"/>
+      <c r="BQ39" s="54"/>
+      <c r="BR39" s="54"/>
+      <c r="BS39" s="54"/>
+      <c r="BT39" s="54"/>
+      <c r="BU39" s="54"/>
+      <c r="BV39" s="54"/>
+      <c r="BW39" s="54"/>
+      <c r="BX39" s="54"/>
+      <c r="BY39" s="54"/>
+      <c r="BZ39" s="54"/>
+      <c r="CA39" s="54"/>
+      <c r="CB39" s="54"/>
+      <c r="CC39" s="54"/>
+      <c r="CD39" s="54"/>
+      <c r="CE39" s="54"/>
+      <c r="CF39" s="54"/>
+      <c r="CG39" s="54"/>
+      <c r="CH39" s="54"/>
+      <c r="CI39" s="54"/>
+      <c r="CJ39" s="54"/>
+      <c r="CK39" s="54"/>
+      <c r="CL39" s="54"/>
+      <c r="CM39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -5674,7 +5748,7 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17:B20 B13:B15 B22:B25 B27:B31 B33:B38 B7:B11">
+  <conditionalFormatting sqref="B13:B15 B7:B11 B27:B31 B33:B38 B17:B18 B22:B25 B20">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B7)))</formula>
     </cfRule>
@@ -5716,7 +5790,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B17:B20 B13:B15 B22:B25 B27:B31 B33:B38 B7:B11</xm:sqref>
+          <xm:sqref>B13:B15 B7:B11 B27:B31 B33:B38 B17:B18 B22:B25 B20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
